--- a/data/git/file/git.o.xlsx
+++ b/data/git/file/git.o.xlsx
@@ -5,28 +5,31 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jryans/Projects/git/debug-info/file/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jryans/Research/Papers/oopsla-2023/data/git/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEAD5D0-C865-544F-A92E-7E9C7ABB405D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E171DE1-08B2-0040-AB2C-6C0ABBED9C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19180" yWindow="500" windowWidth="34400" windowHeight="28280" xr2:uid="{1069CAA2-7C27-E54E-B88A-C9343E41429C}"/>
+    <workbookView xWindow="9040" yWindow="500" windowWidth="34400" windowHeight="28280" activeTab="2" xr2:uid="{1069CAA2-7C27-E54E-B88A-C9343E41429C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Normalised" sheetId="1" r:id="rId1"/>
+    <sheet name="Wide" sheetId="1" r:id="rId1"/>
     <sheet name="Average" sheetId="3" r:id="rId2"/>
-    <sheet name="Flattened" sheetId="2" r:id="rId3"/>
+    <sheet name="Long" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="git.o" localSheetId="0">Normalised!#REF!</definedName>
-    <definedName name="git.o.O013m2r" localSheetId="2">Flattened!$A$1:$F$105</definedName>
-    <definedName name="git.o.O013m2r" localSheetId="0">Normalised!$A$1:$B$105</definedName>
-    <definedName name="git.o.O112" localSheetId="2">Flattened!$G$1:$G$105</definedName>
-    <definedName name="git.o.O112" localSheetId="0">Normalised!$C$1:$C$105</definedName>
-    <definedName name="git.o.O113" localSheetId="2">Flattened!$H$1:$H$106</definedName>
-    <definedName name="git.o.O113" localSheetId="0">Normalised!$D$1:$D$106</definedName>
-    <definedName name="git.o.O114" localSheetId="2">Flattened!$I$1:$I$106</definedName>
-    <definedName name="git.o.O114" localSheetId="0">Normalised!$E$1:$E$106</definedName>
+    <definedName name="git.o" localSheetId="0">Wide!$B$1:$B$105</definedName>
+    <definedName name="git.o_1" localSheetId="0">Wide!$C$1:$C$105</definedName>
+    <definedName name="git.o_2" localSheetId="0">Wide!$D$1:$D$105</definedName>
+    <definedName name="git.o_3" localSheetId="0">Wide!$E$1:$E$105</definedName>
+    <definedName name="git.o.O013m2r" localSheetId="2">Long!$A$1:$F$105</definedName>
+    <definedName name="git.o.O013m2r" localSheetId="0">Wide!$A$1:$A$105</definedName>
+    <definedName name="git.o.O112" localSheetId="2">Long!$G$1:$G$105</definedName>
+    <definedName name="git.o.O112" localSheetId="0">Wide!#REF!</definedName>
+    <definedName name="git.o.O113" localSheetId="2">Long!$H$1:$H$106</definedName>
+    <definedName name="git.o.O113" localSheetId="0">Wide!#REF!</definedName>
+    <definedName name="git.o.O114" localSheetId="2">Long!$I$1:$I$106</definedName>
+    <definedName name="git.o.O114" localSheetId="0">Wide!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +53,20 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{61220DF1-630A-8A4E-AB1A-BE99DCE82120}" name="git.o.O013m2r" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{A6EBA501-C29F-E740-8466-46553FA1D4C6}" name="git.o" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/jryans/Research/Papers/oopsla-2023/data/git/file/O0-13-plus-mem2reg/git.o.tsv">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{61220DF1-630A-8A4E-AB1A-BE99DCE82120}" name="git.o.O013m2r" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/jryans/Projects/git/debug-info/file/O0-13-plus-mem2reg/git.o.O013m2r.tsv">
       <textFields count="7">
         <textField/>
@@ -63,21 +79,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{2F589104-8EE2-F047-B7F7-5B685F62B907}" name="git.o.O013m2r1" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="3" xr16:uid="{2F589104-8EE2-F047-B7F7-5B685F62B907}" name="git.o.O013m2r1" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/jryans/Projects/git/debug-info/file/O0-13-plus-mem2reg/git.o.O013m2r.tsv">
-      <textFields count="7">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="3" xr16:uid="{739C4C2A-6CBA-DA4D-8591-4A308C57C6C4}" name="git.o.O112" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/jryans/Projects/git/debug-info/file/O1-12/git.o.O112.tsv">
       <textFields count="7">
         <textField/>
         <textField/>
@@ -102,7 +105,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" xr16:uid="{7609A6FF-9B45-0C46-8979-914D8BEA6DC4}" name="git.o.O113" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="5" xr16:uid="{36012E3A-6058-C64C-A595-D81A12B55849}" name="git.o.O1131" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/jryans/Projects/git/debug-info/file/O1-13/git.o.O113.tsv">
       <textFields count="7">
         <textField/>
@@ -115,20 +118,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" xr16:uid="{36012E3A-6058-C64C-A595-D81A12B55849}" name="git.o.O1131" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/jryans/Projects/git/debug-info/file/O1-13/git.o.O113.tsv">
-      <textFields count="7">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="7" xr16:uid="{C3039A64-EA20-0841-8BF4-0DEDCA6B886F}" name="git.o.O114" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="6" xr16:uid="{E3C98485-DAAB-A140-BAB8-8A593BAB8486}" name="git.o.O1141" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr sourceFile="/Users/jryans/Projects/git/debug-info/file/O1-14/git.o.O114.tsv">
       <textFields count="7">
         <textField/>
@@ -141,8 +131,34 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" xr16:uid="{E3C98485-DAAB-A140-BAB8-8A593BAB8486}" name="git.o.O1141" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/jryans/Projects/git/debug-info/file/O1-14/git.o.O114.tsv">
+  <connection id="7" xr16:uid="{B80D23E5-B713-F949-BC9A-454EF720252E}" name="git.o1" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/jryans/Research/Papers/oopsla-2023/data/git/file/O1-12/git.o.tsv">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" xr16:uid="{AAF1E2BC-A19F-0C42-A1BE-CB880467D9A9}" name="git.o2" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/jryans/Research/Papers/oopsla-2023/data/git/file/O1-13/git.o.tsv">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="9" xr16:uid="{9A563075-C387-EB47-9C75-5216A598DF10}" name="git.o3" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/jryans/Research/Papers/oopsla-2023/data/git/file/O1-14/git.o.tsv">
       <textFields count="7">
         <textField/>
         <textField/>
@@ -493,16 +509,16 @@
     <t>Average Coverage</t>
   </si>
   <si>
-    <t>CL / SL (O0-13, m2r, LE)</t>
-  </si>
-  <si>
-    <t>CL / SL (O1-12, LE)</t>
-  </si>
-  <si>
-    <t>CL / SL (O1-13, LE)</t>
-  </si>
-  <si>
-    <t>CL / SL (O1-14, LE)</t>
+    <t xml:space="preserve">CL / SL (O0-13, m2r)    </t>
+  </si>
+  <si>
+    <t>CL / SL (O1-12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL / SL (O1-13)   </t>
+  </si>
+  <si>
+    <t>CL / SL (O1-14)</t>
   </si>
 </sst>
 </file>
@@ -550,7 +566,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -575,35 +601,39 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O112" connectionId="3" xr16:uid="{1127F4D9-039F-4E48-9309-3F78397E0B63}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o_3" connectionId="9" xr16:uid="{ED71FF77-6ABC-D749-8E21-C2BBC0C49B38}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O013m2r" connectionId="1" xr16:uid="{9CCAF8A0-2B7D-0548-BCF8-D231422B6B5F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o_2" connectionId="8" xr16:uid="{577EB844-CFFF-874E-B636-A682F7CA9C09}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O114" connectionId="7" xr16:uid="{B4F9BF78-2BA6-E440-B745-2702FE44EFE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o_1" connectionId="7" xr16:uid="{3FDFE62B-64A1-F14C-AAB6-88B8E3E9B697}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O113" connectionId="5" xr16:uid="{F2CAE738-7C88-A24F-829C-89E872FC9554}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o" connectionId="1" xr16:uid="{3D81FA4C-8E74-3F41-ADE1-4880DE78A554}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O113" connectionId="6" xr16:uid="{7EC8FDAA-8641-7F44-A40C-DFADA06143DC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O013m2r" connectionId="2" xr16:uid="{9CCAF8A0-2B7D-0548-BCF8-D231422B6B5F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O114" connectionId="8" xr16:uid="{6DA84D36-F075-D643-87AE-9205D8C2E13B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O013m2r" connectionId="3" xr16:uid="{6BD7D553-8716-684F-A112-947029E7B50E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O013m2r" connectionId="2" xr16:uid="{6BD7D553-8716-684F-A112-947029E7B50E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O112" connectionId="4" xr16:uid="{5C22DE01-5C44-7C4E-9EAF-E54F03689DF7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O112" connectionId="4" xr16:uid="{5C22DE01-5C44-7C4E-9EAF-E54F03689DF7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O113" connectionId="5" xr16:uid="{7EC8FDAA-8641-7F44-A40C-DFADA06143DC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O114" connectionId="6" xr16:uid="{6DA84D36-F075-D643-87AE-9205D8C2E13B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -905,15 +935,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E22154-1622-D145-81FF-3AAF452A4DA9}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -979,21 +1011,21 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.66666999999999998</v>
+        <v>0.69443999999999995</v>
       </c>
       <c r="D3">
-        <v>0.66666999999999998</v>
+        <v>0.69443999999999995</v>
       </c>
       <c r="E3">
         <v>0.66666999999999998</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" si="0">C3-B3</f>
-        <v>-0.33333000000000002</v>
+        <v>-0.30556000000000005</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" si="1">D3-B3</f>
-        <v>-0.33333000000000002</v>
+        <v>-0.30556000000000005</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" si="2">E3-B3</f>
@@ -1008,25 +1040,25 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.75309000000000004</v>
+        <v>0.80556000000000005</v>
       </c>
       <c r="D4">
-        <v>0.75309000000000004</v>
+        <v>0.80556000000000005</v>
       </c>
       <c r="E4">
-        <v>0.75309000000000004</v>
+        <v>0.80556000000000005</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>-0.24690999999999996</v>
+        <v>-0.19443999999999995</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>-0.24690999999999996</v>
+        <v>-0.19443999999999995</v>
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>-0.24690999999999996</v>
+        <v>-0.19443999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1037,25 +1069,25 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.75309000000000004</v>
+        <v>0.88888999999999996</v>
       </c>
       <c r="D5">
-        <v>0.75309000000000004</v>
+        <v>0.88888999999999996</v>
       </c>
       <c r="E5">
-        <v>0.59258999999999995</v>
+        <v>0.77778000000000003</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>-0.24690999999999996</v>
+        <v>-0.11111000000000004</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>-0.24690999999999996</v>
+        <v>-0.11111000000000004</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>-0.40741000000000005</v>
+        <v>-0.22221999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1063,28 +1095,28 @@
         <v>86</v>
       </c>
       <c r="B6">
-        <v>0.90122999999999998</v>
+        <v>0.97619</v>
       </c>
       <c r="C6">
-        <v>0.86419999999999997</v>
+        <v>0.97221999999999997</v>
       </c>
       <c r="D6">
-        <v>0.86419999999999997</v>
+        <v>0.97221999999999997</v>
       </c>
       <c r="E6">
-        <v>0.86419999999999997</v>
+        <v>0.97221999999999997</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>-3.7030000000000007E-2</v>
+        <v>-3.9700000000000291E-3</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>-3.7030000000000007E-2</v>
+        <v>-3.9700000000000291E-3</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>-3.7030000000000007E-2</v>
+        <v>-3.9700000000000291E-3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1121,28 +1153,28 @@
         <v>88</v>
       </c>
       <c r="B8">
-        <v>0.92857000000000001</v>
+        <v>0.90908999999999995</v>
       </c>
       <c r="C8">
-        <v>0.90908999999999995</v>
+        <v>0.625</v>
       </c>
       <c r="D8">
-        <v>0.90908999999999995</v>
+        <v>0.625</v>
       </c>
       <c r="E8">
-        <v>0.90908999999999995</v>
+        <v>0.625</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>-1.9480000000000053E-2</v>
+        <v>-0.28408999999999995</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>-1.9480000000000053E-2</v>
+        <v>-0.28408999999999995</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>-1.9480000000000053E-2</v>
+        <v>-0.28408999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1266,28 +1298,28 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.83333000000000002</v>
       </c>
       <c r="C13">
-        <v>0.4</v>
+        <v>0.66666999999999998</v>
       </c>
       <c r="D13">
-        <v>0.4</v>
+        <v>0.66666999999999998</v>
       </c>
       <c r="E13">
-        <v>0.4</v>
+        <v>0.66666999999999998</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>-0.19999999999999996</v>
+        <v>-0.16666000000000003</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>-0.19999999999999996</v>
+        <v>-0.16666000000000003</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>-0.19999999999999996</v>
+        <v>-0.16666000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1295,16 +1327,16 @@
         <v>35</v>
       </c>
       <c r="B14">
-        <v>0.7</v>
+        <v>0.83333000000000002</v>
       </c>
       <c r="C14">
-        <v>0.7</v>
+        <v>0.83333000000000002</v>
       </c>
       <c r="D14">
-        <v>0.7</v>
+        <v>0.83333000000000002</v>
       </c>
       <c r="E14">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
@@ -1316,7 +1348,7 @@
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>0.10000000000000009</v>
+        <v>0.16666999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1324,7 +1356,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>0.93181999999999998</v>
+        <v>0.95238</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1337,15 +1369,15 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>6.8180000000000018E-2</v>
+        <v>4.7619999999999996E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>6.8180000000000018E-2</v>
+        <v>4.7619999999999996E-2</v>
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>6.8180000000000018E-2</v>
+        <v>4.7619999999999996E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1382,28 +1414,28 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>0.11364</v>
+        <v>0.23810000000000001</v>
       </c>
       <c r="C17">
-        <v>6.8180000000000004E-2</v>
+        <v>0.15789</v>
       </c>
       <c r="D17">
-        <v>6.8180000000000004E-2</v>
+        <v>0.15789</v>
       </c>
       <c r="E17">
-        <v>6.8180000000000004E-2</v>
+        <v>0.15789</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>-4.546E-2</v>
+        <v>-8.0210000000000004E-2</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>-4.546E-2</v>
+        <v>-8.0210000000000004E-2</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>-4.546E-2</v>
+        <v>-8.0210000000000004E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1411,28 +1443,28 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <v>0.77778000000000003</v>
+        <v>0.875</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.22222</v>
+        <v>0.5</v>
       </c>
       <c r="E18">
-        <v>0.22222</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>-0.77778000000000003</v>
+        <v>-0.875</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>-0.55556000000000005</v>
+        <v>-0.375</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>-0.55556000000000005</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1469,28 +1501,28 @@
         <v>30</v>
       </c>
       <c r="B20">
-        <v>0.77778000000000003</v>
+        <v>0.875</v>
       </c>
       <c r="C20">
-        <v>0.88888999999999996</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0.88888999999999996</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0.88888999999999996</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>0.11110999999999993</v>
+        <v>0.125</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>0.11110999999999993</v>
+        <v>0.125</v>
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>0.11110999999999993</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1585,28 +1617,28 @@
         <v>78</v>
       </c>
       <c r="B24">
-        <v>0.9</v>
+        <v>0.93877999999999995</v>
       </c>
       <c r="C24">
-        <v>0.57499999999999996</v>
+        <v>0.69564999999999999</v>
       </c>
       <c r="D24">
-        <v>0.57499999999999996</v>
+        <v>0.69564999999999999</v>
       </c>
       <c r="E24">
-        <v>0.76249999999999996</v>
+        <v>0.89129999999999998</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>-0.32500000000000007</v>
+        <v>-0.24312999999999996</v>
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
-        <v>-0.32500000000000007</v>
+        <v>-0.24312999999999996</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>-0.13750000000000007</v>
+        <v>-4.7479999999999967E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1614,28 +1646,28 @@
         <v>79</v>
       </c>
       <c r="B25">
-        <v>0.88749999999999996</v>
+        <v>0.91837000000000002</v>
       </c>
       <c r="C25">
-        <v>0.45</v>
+        <v>0.30435000000000001</v>
       </c>
       <c r="D25">
-        <v>0.45</v>
+        <v>0.30435000000000001</v>
       </c>
       <c r="E25">
-        <v>0.45</v>
+        <v>0.30435000000000001</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>-0.43749999999999994</v>
+        <v>-0.61402000000000001</v>
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>-0.43749999999999994</v>
+        <v>-0.61402000000000001</v>
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>-0.43749999999999994</v>
+        <v>-0.61402000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1643,28 +1675,28 @@
         <v>71</v>
       </c>
       <c r="B26">
-        <v>0.9</v>
+        <v>0.93877999999999995</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0.80435000000000001</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.80435000000000001</v>
       </c>
       <c r="E26">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>9.9999999999999978E-2</v>
+        <v>-0.13442999999999994</v>
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>9.9999999999999978E-2</v>
+        <v>-0.13442999999999994</v>
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>3.7499999999999978E-2</v>
+        <v>6.1220000000000052E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1675,17 +1707,17 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0.84782999999999997</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.15217000000000003</v>
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
@@ -1693,7 +1725,7 @@
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
-        <v>-6.25E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1733,25 +1765,25 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>0.13750000000000001</v>
+        <v>0.19564999999999999</v>
       </c>
       <c r="D29">
-        <v>0.13750000000000001</v>
+        <v>0.19564999999999999</v>
       </c>
       <c r="E29">
-        <v>0.13750000000000001</v>
+        <v>0.19564999999999999</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>-0.86250000000000004</v>
+        <v>-0.80435000000000001</v>
       </c>
       <c r="H29">
         <f t="shared" si="1"/>
-        <v>-0.86250000000000004</v>
+        <v>-0.80435000000000001</v>
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
-        <v>-0.86250000000000004</v>
+        <v>-0.80435000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1762,25 +1794,25 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>0.5625</v>
+        <v>0.58696000000000004</v>
       </c>
       <c r="D30">
-        <v>0.5625</v>
+        <v>0.58696000000000004</v>
       </c>
       <c r="E30">
-        <v>0.5625</v>
+        <v>0.58696000000000004</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
-        <v>-0.4375</v>
+        <v>-0.41303999999999996</v>
       </c>
       <c r="H30">
         <f t="shared" si="1"/>
-        <v>-0.4375</v>
+        <v>-0.41303999999999996</v>
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
-        <v>-0.4375</v>
+        <v>-0.41303999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1791,25 +1823,25 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>0.3</v>
+        <v>0.36957000000000001</v>
       </c>
       <c r="D31">
-        <v>0.3</v>
+        <v>0.36957000000000001</v>
       </c>
       <c r="E31">
-        <v>0.3</v>
+        <v>0.36957000000000001</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>-0.7</v>
+        <v>-0.63043000000000005</v>
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
-        <v>-0.7</v>
+        <v>-0.63043000000000005</v>
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
-        <v>-0.7</v>
+        <v>-0.63043000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1820,25 +1852,25 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>0.83333000000000002</v>
+        <v>0.93332999999999999</v>
       </c>
       <c r="D32">
-        <v>0.83333000000000002</v>
+        <v>0.93332999999999999</v>
       </c>
       <c r="E32">
-        <v>0.83333000000000002</v>
+        <v>0.93332999999999999</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>-0.16666999999999998</v>
+        <v>-6.6670000000000007E-2</v>
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
-        <v>-0.16666999999999998</v>
+        <v>-6.6670000000000007E-2</v>
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
-        <v>-0.16666999999999998</v>
+        <v>-6.6670000000000007E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1846,28 +1878,28 @@
         <v>80</v>
       </c>
       <c r="B33">
-        <v>0.33750000000000002</v>
+        <v>0.32652999999999999</v>
       </c>
       <c r="C33">
-        <v>6.25E-2</v>
+        <v>6.522E-2</v>
       </c>
       <c r="D33">
-        <v>6.25E-2</v>
+        <v>6.522E-2</v>
       </c>
       <c r="E33">
-        <v>6.25E-2</v>
+        <v>6.522E-2</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>-0.27500000000000002</v>
+        <v>-0.26130999999999999</v>
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
-        <v>-0.27500000000000002</v>
+        <v>-0.26130999999999999</v>
       </c>
       <c r="I33">
         <f t="shared" si="2"/>
-        <v>-0.27500000000000002</v>
+        <v>-0.26130999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1875,28 +1907,28 @@
         <v>76</v>
       </c>
       <c r="B34">
-        <v>0.92500000000000004</v>
+        <v>0.97958999999999996</v>
       </c>
       <c r="C34">
-        <v>0.9375</v>
+        <v>0.97826000000000002</v>
       </c>
       <c r="D34">
-        <v>0.9375</v>
+        <v>0.97826000000000002</v>
       </c>
       <c r="E34">
-        <v>0.9375</v>
+        <v>0.97826000000000002</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>1.2499999999999956E-2</v>
+        <v>-1.3299999999999423E-3</v>
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>1.2499999999999956E-2</v>
+        <v>-1.3299999999999423E-3</v>
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
-        <v>1.2499999999999956E-2</v>
+        <v>-1.3299999999999423E-3</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1904,28 +1936,28 @@
         <v>77</v>
       </c>
       <c r="B35">
-        <v>0.9</v>
+        <v>0.93877999999999995</v>
       </c>
       <c r="C35">
-        <v>0.9</v>
+        <v>0.80435000000000001</v>
       </c>
       <c r="D35">
-        <v>0.9</v>
+        <v>0.80435000000000001</v>
       </c>
       <c r="E35">
-        <v>0.875</v>
+        <v>0.80435000000000001</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.13442999999999994</v>
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.13442999999999994</v>
       </c>
       <c r="I35">
         <f t="shared" si="2"/>
-        <v>-2.5000000000000022E-2</v>
+        <v>-0.13442999999999994</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1933,28 +1965,28 @@
         <v>15</v>
       </c>
       <c r="B36">
-        <v>0.9</v>
+        <v>0.94443999999999995</v>
       </c>
       <c r="C36">
-        <v>0.86667000000000005</v>
+        <v>0.94118000000000002</v>
       </c>
       <c r="D36">
-        <v>0.86667000000000005</v>
+        <v>0.94118000000000002</v>
       </c>
       <c r="E36">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>-3.3329999999999971E-2</v>
+        <v>-3.2599999999999296E-3</v>
       </c>
       <c r="H36">
         <f t="shared" si="1"/>
-        <v>-3.3329999999999971E-2</v>
+        <v>-3.2599999999999296E-3</v>
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.5560000000000054E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1991,7 +2023,7 @@
         <v>16</v>
       </c>
       <c r="B38">
-        <v>0.9</v>
+        <v>0.94443999999999995</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2004,15 +2036,15 @@
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>9.9999999999999978E-2</v>
+        <v>5.5560000000000054E-2</v>
       </c>
       <c r="H38">
         <f t="shared" si="1"/>
-        <v>9.9999999999999978E-2</v>
+        <v>5.5560000000000054E-2</v>
       </c>
       <c r="I38">
         <f t="shared" si="2"/>
-        <v>9.9999999999999978E-2</v>
+        <v>5.5560000000000054E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -2020,28 +2052,28 @@
         <v>19</v>
       </c>
       <c r="B39">
-        <v>0.13333</v>
+        <v>0.22222</v>
       </c>
       <c r="C39">
-        <v>0.1</v>
+        <v>0.17646999999999999</v>
       </c>
       <c r="D39">
-        <v>0.1</v>
+        <v>0.17646999999999999</v>
       </c>
       <c r="E39">
-        <v>0.1</v>
+        <v>0.17646999999999999</v>
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>-3.3329999999999999E-2</v>
+        <v>-4.5750000000000013E-2</v>
       </c>
       <c r="H39">
         <f t="shared" si="1"/>
-        <v>-3.3329999999999999E-2</v>
+        <v>-4.5750000000000013E-2</v>
       </c>
       <c r="I39">
         <f t="shared" si="2"/>
-        <v>-3.3329999999999999E-2</v>
+        <v>-4.5750000000000013E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -2049,28 +2081,28 @@
         <v>18</v>
       </c>
       <c r="B40">
-        <v>0.5</v>
+        <v>0.61111000000000004</v>
       </c>
       <c r="C40">
-        <v>0.7</v>
+        <v>0.82352999999999998</v>
       </c>
       <c r="D40">
-        <v>0.7</v>
+        <v>0.82352999999999998</v>
       </c>
       <c r="E40">
-        <v>0.7</v>
+        <v>0.82352999999999998</v>
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
-        <v>0.19999999999999996</v>
+        <v>0.21241999999999994</v>
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
-        <v>0.19999999999999996</v>
+        <v>0.21241999999999994</v>
       </c>
       <c r="I40">
         <f t="shared" si="2"/>
-        <v>0.19999999999999996</v>
+        <v>0.21241999999999994</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -2078,28 +2110,28 @@
         <v>20</v>
       </c>
       <c r="B41">
-        <v>0.63636000000000004</v>
+        <v>0.77778000000000003</v>
       </c>
       <c r="C41">
-        <v>0.36364000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="D41">
-        <v>0.36364000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="E41">
-        <v>0.36364000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>-0.27272000000000002</v>
+        <v>-0.27778000000000003</v>
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
-        <v>-0.27272000000000002</v>
+        <v>-0.27778000000000003</v>
       </c>
       <c r="I41">
         <f t="shared" si="2"/>
-        <v>-0.27272000000000002</v>
+        <v>-0.27778000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -2107,28 +2139,28 @@
         <v>90</v>
       </c>
       <c r="B42">
-        <v>0.98995</v>
+        <v>0.99414999999999998</v>
       </c>
       <c r="C42">
-        <v>0.98995</v>
+        <v>0.97248000000000001</v>
       </c>
       <c r="D42">
-        <v>0.98995</v>
+        <v>0.97248000000000001</v>
       </c>
       <c r="E42">
-        <v>0.99497000000000002</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2.1669999999999967E-2</v>
       </c>
       <c r="H42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.1669999999999967E-2</v>
       </c>
       <c r="I42">
         <f t="shared" si="2"/>
-        <v>5.0200000000000244E-3</v>
+        <v>5.8500000000000218E-3</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -2136,7 +2168,7 @@
         <v>89</v>
       </c>
       <c r="B43">
-        <v>0.98995</v>
+        <v>0.99414999999999998</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2149,15 +2181,15 @@
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
-        <v>1.0050000000000003E-2</v>
+        <v>5.8500000000000218E-3</v>
       </c>
       <c r="H43">
         <f t="shared" si="1"/>
-        <v>1.0050000000000003E-2</v>
+        <v>5.8500000000000218E-3</v>
       </c>
       <c r="I43">
         <f t="shared" si="2"/>
-        <v>1.0050000000000003E-2</v>
+        <v>5.8500000000000218E-3</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -2168,25 +2200,25 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>0.88083</v>
+        <v>0.91429000000000005</v>
       </c>
       <c r="D44">
-        <v>0.88083</v>
+        <v>0.91429000000000005</v>
       </c>
       <c r="E44">
-        <v>0.88083</v>
+        <v>0.91429000000000005</v>
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
-        <v>-0.11917</v>
+        <v>-8.5709999999999953E-2</v>
       </c>
       <c r="H44">
         <f t="shared" si="1"/>
-        <v>-0.11917</v>
+        <v>-8.5709999999999953E-2</v>
       </c>
       <c r="I44">
         <f t="shared" si="2"/>
-        <v>-0.11917</v>
+        <v>-8.5709999999999953E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -2223,7 +2255,7 @@
         <v>91</v>
       </c>
       <c r="B46">
-        <v>0.98995</v>
+        <v>0.99414999999999998</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2236,15 +2268,15 @@
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
-        <v>1.0050000000000003E-2</v>
+        <v>5.8500000000000218E-3</v>
       </c>
       <c r="H46">
         <f t="shared" si="1"/>
-        <v>1.0050000000000003E-2</v>
+        <v>5.8500000000000218E-3</v>
       </c>
       <c r="I46">
         <f t="shared" si="2"/>
-        <v>1.0050000000000003E-2</v>
+        <v>5.8500000000000218E-3</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -2252,28 +2284,28 @@
         <v>96</v>
       </c>
       <c r="B47">
-        <v>0.5</v>
+        <v>0.66666999999999998</v>
       </c>
       <c r="C47">
-        <v>0.25</v>
+        <v>0.33333000000000002</v>
       </c>
       <c r="D47">
-        <v>0.25</v>
+        <v>0.33333000000000002</v>
       </c>
       <c r="E47">
-        <v>0.25</v>
+        <v>0.33333000000000002</v>
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
-        <v>-0.25</v>
+        <v>-0.33333999999999997</v>
       </c>
       <c r="H47">
         <f t="shared" si="1"/>
-        <v>-0.25</v>
+        <v>-0.33333999999999997</v>
       </c>
       <c r="I47">
         <f t="shared" si="2"/>
-        <v>-0.25</v>
+        <v>-0.33333999999999997</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -2310,28 +2342,28 @@
         <v>92</v>
       </c>
       <c r="B49">
-        <v>0.98492000000000002</v>
+        <v>0.98829999999999996</v>
       </c>
       <c r="C49">
-        <v>0.98492000000000002</v>
+        <v>0.98165000000000002</v>
       </c>
       <c r="D49">
-        <v>0.98492000000000002</v>
+        <v>0.98165000000000002</v>
       </c>
       <c r="E49">
-        <v>0.98492000000000002</v>
+        <v>0.98165000000000002</v>
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-6.6499999999999337E-3</v>
       </c>
       <c r="H49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-6.6499999999999337E-3</v>
       </c>
       <c r="I49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-6.6499999999999337E-3</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -2368,28 +2400,28 @@
         <v>64</v>
       </c>
       <c r="B51">
-        <v>0.77778000000000003</v>
+        <v>0.85714000000000001</v>
       </c>
       <c r="C51">
-        <v>0.88888999999999996</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>0.88888999999999996</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>0.88888999999999996</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
-        <v>0.11110999999999993</v>
+        <v>0.14285999999999999</v>
       </c>
       <c r="H51">
         <f t="shared" si="1"/>
-        <v>0.11110999999999993</v>
+        <v>0.14285999999999999</v>
       </c>
       <c r="I51">
         <f t="shared" si="2"/>
-        <v>0.11110999999999993</v>
+        <v>0.14285999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -2397,28 +2429,28 @@
         <v>65</v>
       </c>
       <c r="B52">
+        <v>0.85714000000000001</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
         <v>0.66666999999999998</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0.44444</v>
-      </c>
       <c r="E52">
-        <v>0.44444</v>
+        <v>0.66666999999999998</v>
       </c>
       <c r="G52">
         <f t="shared" si="0"/>
-        <v>-0.66666999999999998</v>
+        <v>-0.85714000000000001</v>
       </c>
       <c r="H52">
         <f t="shared" si="1"/>
-        <v>-0.22222999999999998</v>
+        <v>-0.19047000000000003</v>
       </c>
       <c r="I52">
         <f t="shared" si="2"/>
-        <v>-0.22222999999999998</v>
+        <v>-0.19047000000000003</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -2426,28 +2458,28 @@
         <v>63</v>
       </c>
       <c r="B53">
-        <v>0.77778000000000003</v>
+        <v>0.85714000000000001</v>
       </c>
       <c r="C53">
-        <v>0.88888999999999996</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>0.88888999999999996</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>0.88888999999999996</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
-        <v>0.11110999999999993</v>
+        <v>0.14285999999999999</v>
       </c>
       <c r="H53">
         <f t="shared" si="1"/>
-        <v>0.11110999999999993</v>
+        <v>0.14285999999999999</v>
       </c>
       <c r="I53">
         <f t="shared" si="2"/>
-        <v>0.11110999999999993</v>
+        <v>0.14285999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -2455,28 +2487,28 @@
         <v>11</v>
       </c>
       <c r="B54">
-        <v>9.0910000000000005E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C54">
-        <v>4.5449999999999997E-2</v>
+        <v>6.6669999999999993E-2</v>
       </c>
       <c r="D54">
-        <v>4.5449999999999997E-2</v>
+        <v>6.6669999999999993E-2</v>
       </c>
       <c r="E54">
-        <v>4.5449999999999997E-2</v>
+        <v>6.6669999999999993E-2</v>
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
-        <v>-4.5460000000000007E-2</v>
+        <v>-5.8330000000000007E-2</v>
       </c>
       <c r="H54">
         <f t="shared" si="1"/>
-        <v>-4.5460000000000007E-2</v>
+        <v>-5.8330000000000007E-2</v>
       </c>
       <c r="I54">
         <f t="shared" si="2"/>
-        <v>-4.5460000000000007E-2</v>
+        <v>-5.8330000000000007E-2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -2484,28 +2516,28 @@
         <v>13</v>
       </c>
       <c r="B55">
-        <v>0.88888999999999996</v>
+        <v>0.91666999999999998</v>
       </c>
       <c r="C55">
-        <v>0.88461999999999996</v>
+        <v>0.90908999999999995</v>
       </c>
       <c r="D55">
-        <v>0.88461999999999996</v>
+        <v>0.90908999999999995</v>
       </c>
       <c r="E55">
-        <v>0.88461999999999996</v>
+        <v>0.90908999999999995</v>
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
-        <v>-4.269999999999996E-3</v>
+        <v>-7.5800000000000312E-3</v>
       </c>
       <c r="H55">
         <f t="shared" si="1"/>
-        <v>-4.269999999999996E-3</v>
+        <v>-7.5800000000000312E-3</v>
       </c>
       <c r="I55">
         <f t="shared" si="2"/>
-        <v>-4.269999999999996E-3</v>
+        <v>-7.5800000000000312E-3</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -2545,25 +2577,25 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>0.79544999999999999</v>
+        <v>0.93332999999999999</v>
       </c>
       <c r="D57">
-        <v>0.79544999999999999</v>
+        <v>0.93332999999999999</v>
       </c>
       <c r="E57">
-        <v>0.79544999999999999</v>
+        <v>0.93332999999999999</v>
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
-        <v>-0.20455000000000001</v>
+        <v>-6.6670000000000007E-2</v>
       </c>
       <c r="H57">
         <f t="shared" si="1"/>
-        <v>-0.20455000000000001</v>
+        <v>-6.6670000000000007E-2</v>
       </c>
       <c r="I57">
         <f t="shared" si="2"/>
-        <v>-0.20455000000000001</v>
+        <v>-6.6670000000000007E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -2600,28 +2632,28 @@
         <v>12</v>
       </c>
       <c r="B59">
-        <v>3.7039999999999997E-2</v>
+        <v>4.1669999999999999E-2</v>
       </c>
       <c r="C59">
-        <v>3.8460000000000001E-2</v>
+        <v>4.5449999999999997E-2</v>
       </c>
       <c r="D59">
-        <v>3.8460000000000001E-2</v>
+        <v>4.5449999999999997E-2</v>
       </c>
       <c r="E59">
-        <v>7.6920000000000002E-2</v>
+        <v>9.0910000000000005E-2</v>
       </c>
       <c r="G59">
         <f t="shared" si="0"/>
-        <v>1.4200000000000046E-3</v>
+        <v>3.7799999999999986E-3</v>
       </c>
       <c r="H59">
         <f t="shared" si="1"/>
-        <v>1.4200000000000046E-3</v>
+        <v>3.7799999999999986E-3</v>
       </c>
       <c r="I59">
         <f t="shared" si="2"/>
-        <v>3.9880000000000006E-2</v>
+        <v>4.9240000000000006E-2</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -2629,28 +2661,28 @@
         <v>8</v>
       </c>
       <c r="B60">
-        <v>0.93181999999999998</v>
+        <v>0.96875</v>
       </c>
       <c r="C60">
-        <v>0.93181999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="D60">
-        <v>0.93181999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="E60">
-        <v>0.77273000000000003</v>
+        <v>0.9</v>
       </c>
       <c r="G60">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-6.8749999999999978E-2</v>
       </c>
       <c r="H60">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-6.8749999999999978E-2</v>
       </c>
       <c r="I60">
         <f t="shared" si="2"/>
-        <v>-0.15908999999999995</v>
+        <v>-6.8749999999999978E-2</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -2658,28 +2690,28 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.41176000000000001</v>
+        <v>0.85714000000000001</v>
       </c>
       <c r="C61">
-        <v>0.47059000000000001</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>0.47059000000000001</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>0.47059000000000001</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <f t="shared" si="0"/>
-        <v>5.8829999999999993E-2</v>
+        <v>0.14285999999999999</v>
       </c>
       <c r="H61">
         <f t="shared" si="1"/>
-        <v>5.8829999999999993E-2</v>
+        <v>0.14285999999999999</v>
       </c>
       <c r="I61">
         <f t="shared" si="2"/>
-        <v>5.8829999999999993E-2</v>
+        <v>0.14285999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -2687,28 +2719,28 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.23529</v>
+        <v>0.57142999999999999</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0.17646999999999999</v>
+        <v>0.42857000000000001</v>
       </c>
       <c r="E62">
-        <v>0.17646999999999999</v>
+        <v>0.42857000000000001</v>
       </c>
       <c r="G62">
         <f t="shared" si="0"/>
-        <v>-0.23529</v>
+        <v>-0.57142999999999999</v>
       </c>
       <c r="H62">
         <f t="shared" si="1"/>
-        <v>-5.8820000000000011E-2</v>
+        <v>-0.14285999999999999</v>
       </c>
       <c r="I62">
         <f t="shared" si="2"/>
-        <v>-5.8820000000000011E-2</v>
+        <v>-0.14285999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -2719,25 +2751,25 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>0.11765</v>
+        <v>0.28571000000000002</v>
       </c>
       <c r="D63">
-        <v>0.11765</v>
+        <v>0.28571000000000002</v>
       </c>
       <c r="E63">
-        <v>0.11765</v>
+        <v>0.28571000000000002</v>
       </c>
       <c r="G63">
         <f t="shared" si="0"/>
-        <v>-0.88234999999999997</v>
+        <v>-0.71428999999999998</v>
       </c>
       <c r="H63">
         <f t="shared" si="1"/>
-        <v>-0.88234999999999997</v>
+        <v>-0.71428999999999998</v>
       </c>
       <c r="I63">
         <f t="shared" si="2"/>
-        <v>-0.88234999999999997</v>
+        <v>-0.71428999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -2748,25 +2780,25 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <v>0.41176000000000001</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>0.41176000000000001</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>0.41176000000000001</v>
+        <v>1</v>
       </c>
       <c r="G64">
         <f t="shared" si="0"/>
-        <v>-0.58823999999999999</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <f t="shared" si="1"/>
-        <v>-0.58823999999999999</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <f t="shared" si="2"/>
-        <v>-0.58823999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -2783,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="E65">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <f t="shared" si="0"/>
@@ -2795,7 +2827,7 @@
       </c>
       <c r="I65">
         <f t="shared" si="2"/>
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -2803,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="B66">
-        <v>0.5</v>
+        <v>0.66666999999999998</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2812,19 +2844,19 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G66">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.33333000000000002</v>
       </c>
       <c r="H66">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.33333000000000002</v>
       </c>
       <c r="I66">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.33333000000000002</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -2832,7 +2864,7 @@
         <v>3</v>
       </c>
       <c r="B67">
-        <v>0.5</v>
+        <v>0.66666999999999998</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2841,19 +2873,19 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G101" si="3">C67-B67</f>
-        <v>0.5</v>
+        <v>0.33333000000000002</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H101" si="4">D67-B67</f>
-        <v>0.5</v>
+        <v>0.33333000000000002</v>
       </c>
       <c r="I67">
         <f t="shared" ref="I67:I101" si="5">E67-B67</f>
-        <v>0.25</v>
+        <v>0.33333000000000002</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -2861,16 +2893,16 @@
         <v>4</v>
       </c>
       <c r="B68">
-        <v>0.25</v>
+        <v>0.33333000000000002</v>
       </c>
       <c r="C68">
-        <v>0.25</v>
+        <v>0.33333000000000002</v>
       </c>
       <c r="D68">
-        <v>0.25</v>
+        <v>0.33333000000000002</v>
       </c>
       <c r="E68">
-        <v>0.25</v>
+        <v>0.33333000000000002</v>
       </c>
       <c r="G68">
         <f t="shared" si="3"/>
@@ -3006,28 +3038,28 @@
         <v>40</v>
       </c>
       <c r="B73">
-        <v>0.95555999999999996</v>
+        <v>0.97619</v>
       </c>
       <c r="C73">
-        <v>0.98889000000000005</v>
+        <v>0.82857000000000003</v>
       </c>
       <c r="D73">
-        <v>0.98889000000000005</v>
+        <v>0.82857000000000003</v>
       </c>
       <c r="E73">
-        <v>0.86667000000000005</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <f t="shared" si="3"/>
-        <v>3.3330000000000082E-2</v>
+        <v>-0.14761999999999997</v>
       </c>
       <c r="H73">
         <f t="shared" si="4"/>
-        <v>3.3330000000000082E-2</v>
+        <v>-0.14761999999999997</v>
       </c>
       <c r="I73">
         <f t="shared" si="5"/>
-        <v>-8.8889999999999914E-2</v>
+        <v>2.3809999999999998E-2</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -3035,28 +3067,28 @@
         <v>41</v>
       </c>
       <c r="B74">
-        <v>0.95555999999999996</v>
+        <v>0.97619</v>
       </c>
       <c r="C74">
-        <v>0.98889000000000005</v>
+        <v>0.82857000000000003</v>
       </c>
       <c r="D74">
-        <v>0.98889000000000005</v>
+        <v>0.94286000000000003</v>
       </c>
       <c r="E74">
-        <v>0.86667000000000005</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <f t="shared" si="3"/>
-        <v>3.3330000000000082E-2</v>
+        <v>-0.14761999999999997</v>
       </c>
       <c r="H74">
         <f t="shared" si="4"/>
-        <v>3.3330000000000082E-2</v>
+        <v>-3.3329999999999971E-2</v>
       </c>
       <c r="I74">
         <f t="shared" si="5"/>
-        <v>-8.8889999999999914E-2</v>
+        <v>2.3809999999999998E-2</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -3122,28 +3154,28 @@
         <v>43</v>
       </c>
       <c r="B77">
-        <v>0.82221999999999995</v>
+        <v>0.97619</v>
       </c>
       <c r="C77">
-        <v>0.84443999999999997</v>
+        <v>0.57142999999999999</v>
       </c>
       <c r="D77">
-        <v>0.84443999999999997</v>
+        <v>0.57142999999999999</v>
       </c>
       <c r="E77">
-        <v>0.84443999999999997</v>
+        <v>0.57142999999999999</v>
       </c>
       <c r="G77">
         <f t="shared" si="3"/>
-        <v>2.2220000000000018E-2</v>
+        <v>-0.40476000000000001</v>
       </c>
       <c r="H77">
         <f t="shared" si="4"/>
-        <v>2.2220000000000018E-2</v>
+        <v>-0.40476000000000001</v>
       </c>
       <c r="I77">
         <f t="shared" si="5"/>
-        <v>2.2220000000000018E-2</v>
+        <v>-0.40476000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -3151,28 +3183,28 @@
         <v>46</v>
       </c>
       <c r="B78">
-        <v>0.45713999999999999</v>
+        <v>0.64705999999999997</v>
       </c>
       <c r="C78">
-        <v>0.14285999999999999</v>
+        <v>0.33333000000000002</v>
       </c>
       <c r="D78">
-        <v>0.14285999999999999</v>
+        <v>0.33333000000000002</v>
       </c>
       <c r="E78">
-        <v>0.14285999999999999</v>
+        <v>0.33333000000000002</v>
       </c>
       <c r="G78">
         <f t="shared" si="3"/>
-        <v>-0.31428</v>
+        <v>-0.31372999999999995</v>
       </c>
       <c r="H78">
         <f t="shared" si="4"/>
-        <v>-0.31428</v>
+        <v>-0.31372999999999995</v>
       </c>
       <c r="I78">
         <f t="shared" si="5"/>
-        <v>-0.31428</v>
+        <v>-0.31372999999999995</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -3180,28 +3212,28 @@
         <v>48</v>
       </c>
       <c r="B79">
-        <v>0.91666999999999998</v>
+        <v>0.90908999999999995</v>
       </c>
       <c r="C79">
-        <v>0.58333000000000002</v>
+        <v>0.625</v>
       </c>
       <c r="D79">
-        <v>0.58333000000000002</v>
+        <v>0.625</v>
       </c>
       <c r="E79">
-        <v>0.58333000000000002</v>
+        <v>0.625</v>
       </c>
       <c r="G79">
         <f t="shared" si="3"/>
-        <v>-0.33333999999999997</v>
+        <v>-0.28408999999999995</v>
       </c>
       <c r="H79">
         <f t="shared" si="4"/>
-        <v>-0.33333999999999997</v>
+        <v>-0.28408999999999995</v>
       </c>
       <c r="I79">
         <f t="shared" si="5"/>
-        <v>-0.33333999999999997</v>
+        <v>-0.28408999999999995</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -3209,7 +3241,7 @@
         <v>49</v>
       </c>
       <c r="B80">
-        <v>0.75</v>
+        <v>0.85714000000000001</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3222,15 +3254,15 @@
       </c>
       <c r="G80">
         <f t="shared" si="3"/>
-        <v>-0.75</v>
+        <v>-0.85714000000000001</v>
       </c>
       <c r="H80">
         <f t="shared" si="4"/>
-        <v>-0.75</v>
+        <v>-0.85714000000000001</v>
       </c>
       <c r="I80">
         <f t="shared" si="5"/>
-        <v>-0.75</v>
+        <v>-0.85714000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -3267,28 +3299,28 @@
         <v>44</v>
       </c>
       <c r="B82">
-        <v>0.94443999999999995</v>
+        <v>0.42857000000000001</v>
       </c>
       <c r="C82">
-        <v>0.18889</v>
+        <v>0.28571000000000002</v>
       </c>
       <c r="D82">
-        <v>0.18889</v>
+        <v>0.28571000000000002</v>
       </c>
       <c r="E82">
-        <v>0.18889</v>
+        <v>0.28571000000000002</v>
       </c>
       <c r="G82">
         <f t="shared" si="3"/>
-        <v>-0.75554999999999994</v>
+        <v>-0.14285999999999999</v>
       </c>
       <c r="H82">
         <f t="shared" si="4"/>
-        <v>-0.75554999999999994</v>
+        <v>-0.14285999999999999</v>
       </c>
       <c r="I82">
         <f t="shared" si="5"/>
-        <v>-0.75554999999999994</v>
+        <v>-0.14285999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -3296,28 +3328,28 @@
         <v>51</v>
       </c>
       <c r="B83">
-        <v>0.94030000000000002</v>
+        <v>0.97872000000000003</v>
       </c>
       <c r="C83">
-        <v>0.98507</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>0.98507</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>0.98507</v>
+        <v>1</v>
       </c>
       <c r="G83">
         <f t="shared" si="3"/>
-        <v>4.4769999999999976E-2</v>
+        <v>2.1279999999999966E-2</v>
       </c>
       <c r="H83">
         <f t="shared" si="4"/>
-        <v>4.4769999999999976E-2</v>
+        <v>2.1279999999999966E-2</v>
       </c>
       <c r="I83">
         <f t="shared" si="5"/>
-        <v>4.4769999999999976E-2</v>
+        <v>2.1279999999999966E-2</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -3325,28 +3357,28 @@
         <v>52</v>
       </c>
       <c r="B84">
-        <v>0.94030000000000002</v>
+        <v>0.97872000000000003</v>
       </c>
       <c r="C84">
-        <v>0.10448</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D84">
-        <v>0.10448</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
       <c r="G84">
         <f t="shared" si="3"/>
-        <v>-0.83582000000000001</v>
+        <v>-0.90372000000000008</v>
       </c>
       <c r="H84">
         <f t="shared" si="4"/>
-        <v>-0.83582000000000001</v>
+        <v>-0.90372000000000008</v>
       </c>
       <c r="I84">
         <f t="shared" si="5"/>
-        <v>5.9699999999999975E-2</v>
+        <v>2.1279999999999966E-2</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -3354,28 +3386,28 @@
         <v>55</v>
       </c>
       <c r="B85">
-        <v>0.89551999999999998</v>
+        <v>0.93616999999999995</v>
       </c>
       <c r="C85">
-        <v>0.49253999999999998</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D85">
-        <v>0.49253999999999998</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="E85">
-        <v>0.49253999999999998</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G85">
         <f t="shared" si="3"/>
-        <v>-0.40298</v>
+        <v>-0.41116999999999992</v>
       </c>
       <c r="H85">
         <f t="shared" si="4"/>
-        <v>-0.40298</v>
+        <v>-0.41116999999999992</v>
       </c>
       <c r="I85">
         <f t="shared" si="5"/>
-        <v>-0.40298</v>
+        <v>-0.41116999999999992</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -3412,28 +3444,28 @@
         <v>50</v>
       </c>
       <c r="B87">
-        <v>0.94030000000000002</v>
+        <v>0.97872000000000003</v>
       </c>
       <c r="C87">
-        <v>0.95521999999999996</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>0.95521999999999996</v>
+        <v>1</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
       <c r="G87">
         <f t="shared" si="3"/>
-        <v>1.4919999999999933E-2</v>
+        <v>2.1279999999999966E-2</v>
       </c>
       <c r="H87">
         <f t="shared" si="4"/>
-        <v>1.4919999999999933E-2</v>
+        <v>2.1279999999999966E-2</v>
       </c>
       <c r="I87">
         <f t="shared" si="5"/>
-        <v>5.9699999999999975E-2</v>
+        <v>2.1279999999999966E-2</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -3441,28 +3473,28 @@
         <v>56</v>
       </c>
       <c r="B88">
-        <v>0.74626999999999999</v>
+        <v>0.82979000000000003</v>
       </c>
       <c r="C88">
-        <v>0.71641999999999995</v>
+        <v>0.8</v>
       </c>
       <c r="D88">
-        <v>0.71641999999999995</v>
+        <v>0.8</v>
       </c>
       <c r="E88">
-        <v>0.71641999999999995</v>
+        <v>0.8</v>
       </c>
       <c r="G88">
         <f t="shared" si="3"/>
-        <v>-2.9850000000000043E-2</v>
+        <v>-2.9789999999999983E-2</v>
       </c>
       <c r="H88">
         <f t="shared" si="4"/>
-        <v>-2.9850000000000043E-2</v>
+        <v>-2.9789999999999983E-2</v>
       </c>
       <c r="I88">
         <f t="shared" si="5"/>
-        <v>-2.9850000000000043E-2</v>
+        <v>-2.9789999999999983E-2</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -3470,28 +3502,28 @@
         <v>54</v>
       </c>
       <c r="B89">
-        <v>0.88060000000000005</v>
+        <v>0.95745000000000002</v>
       </c>
       <c r="C89">
-        <v>0.55223999999999995</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="D89">
-        <v>0.55223999999999995</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="E89">
-        <v>0.55223999999999995</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="G89">
         <f t="shared" si="3"/>
-        <v>-0.3283600000000001</v>
+        <v>-0.28244999999999998</v>
       </c>
       <c r="H89">
         <f t="shared" si="4"/>
-        <v>-0.3283600000000001</v>
+        <v>-0.28244999999999998</v>
       </c>
       <c r="I89">
         <f t="shared" si="5"/>
-        <v>-0.3283600000000001</v>
+        <v>-0.28244999999999998</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -3528,28 +3560,28 @@
         <v>57</v>
       </c>
       <c r="B91">
-        <v>0.31342999999999999</v>
+        <v>0.31914999999999999</v>
       </c>
       <c r="C91">
-        <v>0.10448</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D91">
-        <v>0.10448</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E91">
-        <v>0.10448</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="G91">
         <f t="shared" si="3"/>
-        <v>-0.20894999999999997</v>
+        <v>-0.24414999999999998</v>
       </c>
       <c r="H91">
         <f t="shared" si="4"/>
-        <v>-0.20894999999999997</v>
+        <v>-0.24414999999999998</v>
       </c>
       <c r="I91">
         <f t="shared" si="5"/>
-        <v>-0.20894999999999997</v>
+        <v>-0.24414999999999998</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -3560,21 +3592,21 @@
         <v>0.875</v>
       </c>
       <c r="C92">
-        <v>0.875</v>
+        <v>0.83333000000000002</v>
       </c>
       <c r="D92">
-        <v>0.875</v>
+        <v>0.83333000000000002</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="G92">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-4.1669999999999985E-2</v>
       </c>
       <c r="H92">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-4.1669999999999985E-2</v>
       </c>
       <c r="I92">
         <f t="shared" si="5"/>
@@ -3589,25 +3621,25 @@
         <v>0.875</v>
       </c>
       <c r="C93">
-        <v>0.75</v>
+        <v>0.83333000000000002</v>
       </c>
       <c r="D93">
-        <v>0.75</v>
+        <v>0.83333000000000002</v>
       </c>
       <c r="E93">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="G93">
         <f t="shared" si="3"/>
-        <v>-0.125</v>
+        <v>-4.1669999999999985E-2</v>
       </c>
       <c r="H93">
         <f t="shared" si="4"/>
-        <v>-0.125</v>
+        <v>-4.1669999999999985E-2</v>
       </c>
       <c r="I93">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -3615,7 +3647,7 @@
         <v>70</v>
       </c>
       <c r="B94">
-        <v>0.88888999999999996</v>
+        <v>0.875</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -3628,15 +3660,15 @@
       </c>
       <c r="G94">
         <f t="shared" si="3"/>
-        <v>0.11111000000000004</v>
+        <v>0.125</v>
       </c>
       <c r="H94">
         <f t="shared" si="4"/>
-        <v>0.11111000000000004</v>
+        <v>0.125</v>
       </c>
       <c r="I94">
         <f t="shared" si="5"/>
-        <v>0.11111000000000004</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -3644,7 +3676,7 @@
         <v>69</v>
       </c>
       <c r="B95">
-        <v>0.77778000000000003</v>
+        <v>0.75</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -3657,15 +3689,15 @@
       </c>
       <c r="G95">
         <f t="shared" si="3"/>
-        <v>0.22221999999999997</v>
+        <v>0.25</v>
       </c>
       <c r="H95">
         <f t="shared" si="4"/>
-        <v>0.22221999999999997</v>
+        <v>0.25</v>
       </c>
       <c r="I95">
         <f t="shared" si="5"/>
-        <v>0.22221999999999997</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -3673,7 +3705,7 @@
         <v>68</v>
       </c>
       <c r="B96">
-        <v>0.77778000000000003</v>
+        <v>0.75</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -3686,15 +3718,15 @@
       </c>
       <c r="G96">
         <f t="shared" si="3"/>
-        <v>0.22221999999999997</v>
+        <v>0.25</v>
       </c>
       <c r="H96">
         <f t="shared" si="4"/>
-        <v>0.22221999999999997</v>
+        <v>0.25</v>
       </c>
       <c r="I96">
         <f t="shared" si="5"/>
-        <v>0.22221999999999997</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -3702,7 +3734,7 @@
         <v>37</v>
       </c>
       <c r="B97">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -3715,15 +3747,15 @@
       </c>
       <c r="G97">
         <f t="shared" si="3"/>
-        <v>0.19999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="H97">
         <f t="shared" si="4"/>
-        <v>0.19999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="I97">
         <f t="shared" si="5"/>
-        <v>0.19999999999999996</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -3731,7 +3763,7 @@
         <v>38</v>
       </c>
       <c r="B98">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -3744,15 +3776,15 @@
       </c>
       <c r="G98">
         <f t="shared" si="3"/>
-        <v>0.19999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="H98">
         <f t="shared" si="4"/>
-        <v>0.19999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="I98">
         <f t="shared" si="5"/>
-        <v>0.19999999999999996</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -3857,7 +3889,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3879,8 +3911,8 @@
         <v>105</v>
       </c>
       <c r="B2">
-        <f>1+AVERAGE(Normalised!G1:G101)</f>
-        <v>0.90509569999999995</v>
+        <f>1+AVERAGE(Wide!G2:G101)</f>
+        <v>0.89913409999999994</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3888,8 +3920,8 @@
         <v>104</v>
       </c>
       <c r="B3">
-        <f>1+AVERAGE(Normalised!H1:H101)</f>
-        <v>0.91686029999999996</v>
+        <f>1+AVERAGE(Wide!H2:H101)</f>
+        <v>0.92108440000000003</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3897,8 +3929,8 @@
         <v>106</v>
       </c>
       <c r="B4">
-        <f>1+AVERAGE(Normalised!I1:I101)</f>
-        <v>0.93276610000000004</v>
+        <f>1+AVERAGE(Wide!I2:I101)</f>
+        <v>0.95646240000000005</v>
       </c>
     </row>
   </sheetData>
@@ -3911,8 +3943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B95AD34-2DCB-AC43-B218-83D6A66E9916}">
   <dimension ref="A1:C401"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3940,6 +3972,7 @@
         <v>29</v>
       </c>
       <c r="B2">
+        <f>Wide!B2</f>
         <v>0.8</v>
       </c>
       <c r="C2" t="s">
@@ -3951,6 +3984,7 @@
         <v>83</v>
       </c>
       <c r="B3">
+        <f>Wide!B3</f>
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -3962,6 +3996,7 @@
         <v>84</v>
       </c>
       <c r="B4">
+        <f>Wide!B4</f>
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -3973,6 +4008,7 @@
         <v>85</v>
       </c>
       <c r="B5">
+        <f>Wide!B5</f>
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -3984,7 +4020,8 @@
         <v>86</v>
       </c>
       <c r="B6">
-        <v>0.90122999999999998</v>
+        <f>Wide!B6</f>
+        <v>0.97619</v>
       </c>
       <c r="C6" t="s">
         <v>103</v>
@@ -3995,6 +4032,7 @@
         <v>87</v>
       </c>
       <c r="B7">
+        <f>Wide!B7</f>
         <v>0.66666999999999998</v>
       </c>
       <c r="C7" t="s">
@@ -4006,7 +4044,8 @@
         <v>88</v>
       </c>
       <c r="B8">
-        <v>0.92857000000000001</v>
+        <f>Wide!B8</f>
+        <v>0.90908999999999995</v>
       </c>
       <c r="C8" t="s">
         <v>103</v>
@@ -4017,6 +4056,7 @@
         <v>25</v>
       </c>
       <c r="B9">
+        <f>Wide!B9</f>
         <v>0.75</v>
       </c>
       <c r="C9" t="s">
@@ -4028,6 +4068,7 @@
         <v>27</v>
       </c>
       <c r="B10">
+        <f>Wide!B10</f>
         <v>0.75</v>
       </c>
       <c r="C10" t="s">
@@ -4039,6 +4080,7 @@
         <v>28</v>
       </c>
       <c r="B11">
+        <f>Wide!B11</f>
         <v>0.75</v>
       </c>
       <c r="C11" t="s">
@@ -4050,6 +4092,7 @@
         <v>26</v>
       </c>
       <c r="B12">
+        <f>Wide!B12</f>
         <v>0.75</v>
       </c>
       <c r="C12" t="s">
@@ -4061,7 +4104,8 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <f>Wide!B13</f>
+        <v>0.83333000000000002</v>
       </c>
       <c r="C13" t="s">
         <v>103</v>
@@ -4072,7 +4116,8 @@
         <v>35</v>
       </c>
       <c r="B14">
-        <v>0.7</v>
+        <f>Wide!B14</f>
+        <v>0.83333000000000002</v>
       </c>
       <c r="C14" t="s">
         <v>103</v>
@@ -4083,7 +4128,8 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>0.93181999999999998</v>
+        <f>Wide!B15</f>
+        <v>0.95238</v>
       </c>
       <c r="C15" t="s">
         <v>103</v>
@@ -4094,6 +4140,7 @@
         <v>6</v>
       </c>
       <c r="B16">
+        <f>Wide!B16</f>
         <v>1</v>
       </c>
       <c r="C16" t="s">
@@ -4105,7 +4152,8 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>0.11364</v>
+        <f>Wide!B17</f>
+        <v>0.23810000000000001</v>
       </c>
       <c r="C17" t="s">
         <v>103</v>
@@ -4116,7 +4164,8 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <v>0.77778000000000003</v>
+        <f>Wide!B18</f>
+        <v>0.875</v>
       </c>
       <c r="C18" t="s">
         <v>103</v>
@@ -4127,6 +4176,7 @@
         <v>32</v>
       </c>
       <c r="B19">
+        <f>Wide!B19</f>
         <v>0.75</v>
       </c>
       <c r="C19" t="s">
@@ -4138,7 +4188,8 @@
         <v>30</v>
       </c>
       <c r="B20">
-        <v>0.77778000000000003</v>
+        <f>Wide!B20</f>
+        <v>0.875</v>
       </c>
       <c r="C20" t="s">
         <v>103</v>
@@ -4149,6 +4200,7 @@
         <v>100</v>
       </c>
       <c r="B21">
+        <f>Wide!B21</f>
         <v>1</v>
       </c>
       <c r="C21" t="s">
@@ -4160,6 +4212,7 @@
         <v>67</v>
       </c>
       <c r="B22">
+        <f>Wide!B22</f>
         <v>0.75</v>
       </c>
       <c r="C22" t="s">
@@ -4171,6 +4224,7 @@
         <v>66</v>
       </c>
       <c r="B23">
+        <f>Wide!B23</f>
         <v>0.75</v>
       </c>
       <c r="C23" t="s">
@@ -4182,7 +4236,8 @@
         <v>78</v>
       </c>
       <c r="B24">
-        <v>0.9</v>
+        <f>Wide!B24</f>
+        <v>0.93877999999999995</v>
       </c>
       <c r="C24" t="s">
         <v>103</v>
@@ -4193,7 +4248,8 @@
         <v>79</v>
       </c>
       <c r="B25">
-        <v>0.88749999999999996</v>
+        <f>Wide!B25</f>
+        <v>0.91837000000000002</v>
       </c>
       <c r="C25" t="s">
         <v>103</v>
@@ -4204,7 +4260,8 @@
         <v>71</v>
       </c>
       <c r="B26">
-        <v>0.9</v>
+        <f>Wide!B26</f>
+        <v>0.93877999999999995</v>
       </c>
       <c r="C26" t="s">
         <v>103</v>
@@ -4215,6 +4272,7 @@
         <v>72</v>
       </c>
       <c r="B27">
+        <f>Wide!B27</f>
         <v>1</v>
       </c>
       <c r="C27" t="s">
@@ -4226,6 +4284,7 @@
         <v>81</v>
       </c>
       <c r="B28">
+        <f>Wide!B28</f>
         <v>1</v>
       </c>
       <c r="C28" t="s">
@@ -4237,6 +4296,7 @@
         <v>74</v>
       </c>
       <c r="B29">
+        <f>Wide!B29</f>
         <v>1</v>
       </c>
       <c r="C29" t="s">
@@ -4248,6 +4308,7 @@
         <v>73</v>
       </c>
       <c r="B30">
+        <f>Wide!B30</f>
         <v>1</v>
       </c>
       <c r="C30" t="s">
@@ -4259,6 +4320,7 @@
         <v>75</v>
       </c>
       <c r="B31">
+        <f>Wide!B31</f>
         <v>1</v>
       </c>
       <c r="C31" t="s">
@@ -4270,6 +4332,7 @@
         <v>82</v>
       </c>
       <c r="B32">
+        <f>Wide!B32</f>
         <v>1</v>
       </c>
       <c r="C32" t="s">
@@ -4281,7 +4344,8 @@
         <v>80</v>
       </c>
       <c r="B33">
-        <v>0.33750000000000002</v>
+        <f>Wide!B33</f>
+        <v>0.32652999999999999</v>
       </c>
       <c r="C33" t="s">
         <v>103</v>
@@ -4292,7 +4356,8 @@
         <v>76</v>
       </c>
       <c r="B34">
-        <v>0.92500000000000004</v>
+        <f>Wide!B34</f>
+        <v>0.97958999999999996</v>
       </c>
       <c r="C34" t="s">
         <v>103</v>
@@ -4303,7 +4368,8 @@
         <v>77</v>
       </c>
       <c r="B35">
-        <v>0.9</v>
+        <f>Wide!B35</f>
+        <v>0.93877999999999995</v>
       </c>
       <c r="C35" t="s">
         <v>103</v>
@@ -4314,7 +4380,8 @@
         <v>15</v>
       </c>
       <c r="B36">
-        <v>0.9</v>
+        <f>Wide!B36</f>
+        <v>0.94443999999999995</v>
       </c>
       <c r="C36" t="s">
         <v>103</v>
@@ -4325,6 +4392,7 @@
         <v>17</v>
       </c>
       <c r="B37">
+        <f>Wide!B37</f>
         <v>1</v>
       </c>
       <c r="C37" t="s">
@@ -4336,7 +4404,8 @@
         <v>16</v>
       </c>
       <c r="B38">
-        <v>0.9</v>
+        <f>Wide!B38</f>
+        <v>0.94443999999999995</v>
       </c>
       <c r="C38" t="s">
         <v>103</v>
@@ -4347,7 +4416,8 @@
         <v>19</v>
       </c>
       <c r="B39">
-        <v>0.13333</v>
+        <f>Wide!B39</f>
+        <v>0.22222</v>
       </c>
       <c r="C39" t="s">
         <v>103</v>
@@ -4358,7 +4428,8 @@
         <v>18</v>
       </c>
       <c r="B40">
-        <v>0.5</v>
+        <f>Wide!B40</f>
+        <v>0.61111000000000004</v>
       </c>
       <c r="C40" t="s">
         <v>103</v>
@@ -4369,7 +4440,8 @@
         <v>20</v>
       </c>
       <c r="B41">
-        <v>0.63636000000000004</v>
+        <f>Wide!B41</f>
+        <v>0.77778000000000003</v>
       </c>
       <c r="C41" t="s">
         <v>103</v>
@@ -4380,7 +4452,8 @@
         <v>90</v>
       </c>
       <c r="B42">
-        <v>0.98995</v>
+        <f>Wide!B42</f>
+        <v>0.99414999999999998</v>
       </c>
       <c r="C42" t="s">
         <v>103</v>
@@ -4391,7 +4464,8 @@
         <v>89</v>
       </c>
       <c r="B43">
-        <v>0.98995</v>
+        <f>Wide!B43</f>
+        <v>0.99414999999999998</v>
       </c>
       <c r="C43" t="s">
         <v>103</v>
@@ -4402,6 +4476,7 @@
         <v>93</v>
       </c>
       <c r="B44">
+        <f>Wide!B44</f>
         <v>1</v>
       </c>
       <c r="C44" t="s">
@@ -4413,6 +4488,7 @@
         <v>94</v>
       </c>
       <c r="B45">
+        <f>Wide!B45</f>
         <v>0.875</v>
       </c>
       <c r="C45" t="s">
@@ -4424,7 +4500,8 @@
         <v>91</v>
       </c>
       <c r="B46">
-        <v>0.98995</v>
+        <f>Wide!B46</f>
+        <v>0.99414999999999998</v>
       </c>
       <c r="C46" t="s">
         <v>103</v>
@@ -4435,7 +4512,8 @@
         <v>96</v>
       </c>
       <c r="B47">
-        <v>0.5</v>
+        <f>Wide!B47</f>
+        <v>0.66666999999999998</v>
       </c>
       <c r="C47" t="s">
         <v>103</v>
@@ -4446,6 +4524,7 @@
         <v>95</v>
       </c>
       <c r="B48">
+        <f>Wide!B48</f>
         <v>1</v>
       </c>
       <c r="C48" t="s">
@@ -4457,7 +4536,8 @@
         <v>92</v>
       </c>
       <c r="B49">
-        <v>0.98492000000000002</v>
+        <f>Wide!B49</f>
+        <v>0.98829999999999996</v>
       </c>
       <c r="C49" t="s">
         <v>103</v>
@@ -4468,6 +4548,7 @@
         <v>99</v>
       </c>
       <c r="B50">
+        <f>Wide!B50</f>
         <v>1</v>
       </c>
       <c r="C50" t="s">
@@ -4479,7 +4560,8 @@
         <v>64</v>
       </c>
       <c r="B51">
-        <v>0.77778000000000003</v>
+        <f>Wide!B51</f>
+        <v>0.85714000000000001</v>
       </c>
       <c r="C51" t="s">
         <v>103</v>
@@ -4490,7 +4572,8 @@
         <v>65</v>
       </c>
       <c r="B52">
-        <v>0.66666999999999998</v>
+        <f>Wide!B52</f>
+        <v>0.85714000000000001</v>
       </c>
       <c r="C52" t="s">
         <v>103</v>
@@ -4501,7 +4584,8 @@
         <v>63</v>
       </c>
       <c r="B53">
-        <v>0.77778000000000003</v>
+        <f>Wide!B53</f>
+        <v>0.85714000000000001</v>
       </c>
       <c r="C53" t="s">
         <v>103</v>
@@ -4512,7 +4596,8 @@
         <v>11</v>
       </c>
       <c r="B54">
-        <v>9.0910000000000005E-2</v>
+        <f>Wide!B54</f>
+        <v>0.125</v>
       </c>
       <c r="C54" t="s">
         <v>103</v>
@@ -4523,7 +4608,8 @@
         <v>13</v>
       </c>
       <c r="B55">
-        <v>0.88888999999999996</v>
+        <f>Wide!B55</f>
+        <v>0.91666999999999998</v>
       </c>
       <c r="C55" t="s">
         <v>103</v>
@@ -4534,6 +4620,7 @@
         <v>9</v>
       </c>
       <c r="B56">
+        <f>Wide!B56</f>
         <v>1</v>
       </c>
       <c r="C56" t="s">
@@ -4545,6 +4632,7 @@
         <v>10</v>
       </c>
       <c r="B57">
+        <f>Wide!B57</f>
         <v>1</v>
       </c>
       <c r="C57" t="s">
@@ -4556,6 +4644,7 @@
         <v>14</v>
       </c>
       <c r="B58">
+        <f>Wide!B58</f>
         <v>1</v>
       </c>
       <c r="C58" t="s">
@@ -4567,7 +4656,8 @@
         <v>12</v>
       </c>
       <c r="B59">
-        <v>3.7039999999999997E-2</v>
+        <f>Wide!B59</f>
+        <v>4.1669999999999999E-2</v>
       </c>
       <c r="C59" t="s">
         <v>103</v>
@@ -4578,7 +4668,8 @@
         <v>8</v>
       </c>
       <c r="B60">
-        <v>0.93181999999999998</v>
+        <f>Wide!B60</f>
+        <v>0.96875</v>
       </c>
       <c r="C60" t="s">
         <v>103</v>
@@ -4589,7 +4680,8 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.41176000000000001</v>
+        <f>Wide!B61</f>
+        <v>0.85714000000000001</v>
       </c>
       <c r="C61" t="s">
         <v>103</v>
@@ -4600,7 +4692,8 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.23529</v>
+        <f>Wide!B62</f>
+        <v>0.57142999999999999</v>
       </c>
       <c r="C62" t="s">
         <v>103</v>
@@ -4611,6 +4704,7 @@
         <v>61</v>
       </c>
       <c r="B63">
+        <f>Wide!B63</f>
         <v>1</v>
       </c>
       <c r="C63" t="s">
@@ -4622,6 +4716,7 @@
         <v>59</v>
       </c>
       <c r="B64">
+        <f>Wide!B64</f>
         <v>1</v>
       </c>
       <c r="C64" t="s">
@@ -4633,6 +4728,7 @@
         <v>2</v>
       </c>
       <c r="B65">
+        <f>Wide!B65</f>
         <v>1</v>
       </c>
       <c r="C65" t="s">
@@ -4644,7 +4740,8 @@
         <v>1</v>
       </c>
       <c r="B66">
-        <v>0.5</v>
+        <f>Wide!B66</f>
+        <v>0.66666999999999998</v>
       </c>
       <c r="C66" t="s">
         <v>103</v>
@@ -4655,7 +4752,8 @@
         <v>3</v>
       </c>
       <c r="B67">
-        <v>0.5</v>
+        <f>Wide!B67</f>
+        <v>0.66666999999999998</v>
       </c>
       <c r="C67" t="s">
         <v>103</v>
@@ -4666,7 +4764,8 @@
         <v>4</v>
       </c>
       <c r="B68">
-        <v>0.25</v>
+        <f>Wide!B68</f>
+        <v>0.33333000000000002</v>
       </c>
       <c r="C68" t="s">
         <v>103</v>
@@ -4677,6 +4776,7 @@
         <v>21</v>
       </c>
       <c r="B69">
+        <f>Wide!B69</f>
         <v>0.75</v>
       </c>
       <c r="C69" t="s">
@@ -4688,6 +4788,7 @@
         <v>23</v>
       </c>
       <c r="B70">
+        <f>Wide!B70</f>
         <v>0.75</v>
       </c>
       <c r="C70" t="s">
@@ -4699,6 +4800,7 @@
         <v>24</v>
       </c>
       <c r="B71">
+        <f>Wide!B71</f>
         <v>0.75</v>
       </c>
       <c r="C71" t="s">
@@ -4710,6 +4812,7 @@
         <v>22</v>
       </c>
       <c r="B72">
+        <f>Wide!B72</f>
         <v>0.75</v>
       </c>
       <c r="C72" t="s">
@@ -4721,7 +4824,8 @@
         <v>40</v>
       </c>
       <c r="B73">
-        <v>0.95555999999999996</v>
+        <f>Wide!B73</f>
+        <v>0.97619</v>
       </c>
       <c r="C73" t="s">
         <v>103</v>
@@ -4732,7 +4836,8 @@
         <v>41</v>
       </c>
       <c r="B74">
-        <v>0.95555999999999996</v>
+        <f>Wide!B74</f>
+        <v>0.97619</v>
       </c>
       <c r="C74" t="s">
         <v>103</v>
@@ -4743,6 +4848,7 @@
         <v>45</v>
       </c>
       <c r="B75">
+        <f>Wide!B75</f>
         <v>1</v>
       </c>
       <c r="C75" t="s">
@@ -4754,6 +4860,7 @@
         <v>42</v>
       </c>
       <c r="B76">
+        <f>Wide!B76</f>
         <v>1</v>
       </c>
       <c r="C76" t="s">
@@ -4765,7 +4872,8 @@
         <v>43</v>
       </c>
       <c r="B77">
-        <v>0.82221999999999995</v>
+        <f>Wide!B77</f>
+        <v>0.97619</v>
       </c>
       <c r="C77" t="s">
         <v>103</v>
@@ -4776,7 +4884,8 @@
         <v>46</v>
       </c>
       <c r="B78">
-        <v>0.45713999999999999</v>
+        <f>Wide!B78</f>
+        <v>0.64705999999999997</v>
       </c>
       <c r="C78" t="s">
         <v>103</v>
@@ -4787,7 +4896,8 @@
         <v>48</v>
       </c>
       <c r="B79">
-        <v>0.91666999999999998</v>
+        <f>Wide!B79</f>
+        <v>0.90908999999999995</v>
       </c>
       <c r="C79" t="s">
         <v>103</v>
@@ -4798,7 +4908,8 @@
         <v>49</v>
       </c>
       <c r="B80">
-        <v>0.75</v>
+        <f>Wide!B80</f>
+        <v>0.85714000000000001</v>
       </c>
       <c r="C80" t="s">
         <v>103</v>
@@ -4809,6 +4920,7 @@
         <v>47</v>
       </c>
       <c r="B81">
+        <f>Wide!B81</f>
         <v>1</v>
       </c>
       <c r="C81" t="s">
@@ -4820,7 +4932,8 @@
         <v>44</v>
       </c>
       <c r="B82">
-        <v>0.94443999999999995</v>
+        <f>Wide!B82</f>
+        <v>0.42857000000000001</v>
       </c>
       <c r="C82" t="s">
         <v>103</v>
@@ -4831,7 +4944,8 @@
         <v>51</v>
       </c>
       <c r="B83">
-        <v>0.94030000000000002</v>
+        <f>Wide!B83</f>
+        <v>0.97872000000000003</v>
       </c>
       <c r="C83" t="s">
         <v>103</v>
@@ -4842,7 +4956,8 @@
         <v>52</v>
       </c>
       <c r="B84">
-        <v>0.94030000000000002</v>
+        <f>Wide!B84</f>
+        <v>0.97872000000000003</v>
       </c>
       <c r="C84" t="s">
         <v>103</v>
@@ -4853,7 +4968,8 @@
         <v>55</v>
       </c>
       <c r="B85">
-        <v>0.89551999999999998</v>
+        <f>Wide!B85</f>
+        <v>0.93616999999999995</v>
       </c>
       <c r="C85" t="s">
         <v>103</v>
@@ -4864,6 +4980,7 @@
         <v>58</v>
       </c>
       <c r="B86">
+        <f>Wide!B86</f>
         <v>1</v>
       </c>
       <c r="C86" t="s">
@@ -4875,7 +4992,8 @@
         <v>50</v>
       </c>
       <c r="B87">
-        <v>0.94030000000000002</v>
+        <f>Wide!B87</f>
+        <v>0.97872000000000003</v>
       </c>
       <c r="C87" t="s">
         <v>103</v>
@@ -4886,7 +5004,8 @@
         <v>56</v>
       </c>
       <c r="B88">
-        <v>0.74626999999999999</v>
+        <f>Wide!B88</f>
+        <v>0.82979000000000003</v>
       </c>
       <c r="C88" t="s">
         <v>103</v>
@@ -4897,7 +5016,8 @@
         <v>54</v>
       </c>
       <c r="B89">
-        <v>0.88060000000000005</v>
+        <f>Wide!B89</f>
+        <v>0.95745000000000002</v>
       </c>
       <c r="C89" t="s">
         <v>103</v>
@@ -4908,6 +5028,7 @@
         <v>53</v>
       </c>
       <c r="B90">
+        <f>Wide!B90</f>
         <v>1</v>
       </c>
       <c r="C90" t="s">
@@ -4919,7 +5040,8 @@
         <v>57</v>
       </c>
       <c r="B91">
-        <v>0.31342999999999999</v>
+        <f>Wide!B91</f>
+        <v>0.31914999999999999</v>
       </c>
       <c r="C91" t="s">
         <v>103</v>
@@ -4930,6 +5052,7 @@
         <v>33</v>
       </c>
       <c r="B92">
+        <f>Wide!B92</f>
         <v>0.875</v>
       </c>
       <c r="C92" t="s">
@@ -4941,6 +5064,7 @@
         <v>34</v>
       </c>
       <c r="B93">
+        <f>Wide!B93</f>
         <v>0.875</v>
       </c>
       <c r="C93" t="s">
@@ -4952,7 +5076,8 @@
         <v>70</v>
       </c>
       <c r="B94">
-        <v>0.88888999999999996</v>
+        <f>Wide!B94</f>
+        <v>0.875</v>
       </c>
       <c r="C94" t="s">
         <v>103</v>
@@ -4963,7 +5088,8 @@
         <v>69</v>
       </c>
       <c r="B95">
-        <v>0.77778000000000003</v>
+        <f>Wide!B95</f>
+        <v>0.75</v>
       </c>
       <c r="C95" t="s">
         <v>103</v>
@@ -4974,7 +5100,8 @@
         <v>68</v>
       </c>
       <c r="B96">
-        <v>0.77778000000000003</v>
+        <f>Wide!B96</f>
+        <v>0.75</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -4985,7 +5112,8 @@
         <v>37</v>
       </c>
       <c r="B97">
-        <v>0.8</v>
+        <f>Wide!B97</f>
+        <v>0.75</v>
       </c>
       <c r="C97" t="s">
         <v>103</v>
@@ -4996,7 +5124,8 @@
         <v>38</v>
       </c>
       <c r="B98">
-        <v>0.8</v>
+        <f>Wide!B98</f>
+        <v>0.75</v>
       </c>
       <c r="C98" t="s">
         <v>103</v>
@@ -5007,6 +5136,7 @@
         <v>98</v>
       </c>
       <c r="B99">
+        <f>Wide!B99</f>
         <v>1</v>
       </c>
       <c r="C99" t="s">
@@ -5018,6 +5148,7 @@
         <v>97</v>
       </c>
       <c r="B100">
+        <f>Wide!B100</f>
         <v>1</v>
       </c>
       <c r="C100" t="s">
@@ -5029,6 +5160,7 @@
         <v>39</v>
       </c>
       <c r="B101">
+        <f>Wide!B101</f>
         <v>0.5</v>
       </c>
       <c r="C101" t="s">
@@ -5040,6 +5172,7 @@
         <v>29</v>
       </c>
       <c r="B102">
+        <f>Wide!C2</f>
         <v>1</v>
       </c>
       <c r="C102" t="s">
@@ -5051,7 +5184,8 @@
         <v>83</v>
       </c>
       <c r="B103">
-        <v>0.66666999999999998</v>
+        <f>Wide!C3</f>
+        <v>0.69443999999999995</v>
       </c>
       <c r="C103" t="s">
         <v>105</v>
@@ -5062,7 +5196,8 @@
         <v>84</v>
       </c>
       <c r="B104">
-        <v>0.75309000000000004</v>
+        <f>Wide!C4</f>
+        <v>0.80556000000000005</v>
       </c>
       <c r="C104" t="s">
         <v>105</v>
@@ -5073,7 +5208,8 @@
         <v>85</v>
       </c>
       <c r="B105">
-        <v>0.75309000000000004</v>
+        <f>Wide!C5</f>
+        <v>0.88888999999999996</v>
       </c>
       <c r="C105" t="s">
         <v>105</v>
@@ -5084,7 +5220,8 @@
         <v>86</v>
       </c>
       <c r="B106">
-        <v>0.86419999999999997</v>
+        <f>Wide!C6</f>
+        <v>0.97221999999999997</v>
       </c>
       <c r="C106" t="s">
         <v>105</v>
@@ -5095,6 +5232,7 @@
         <v>87</v>
       </c>
       <c r="B107">
+        <f>Wide!C7</f>
         <v>0.66666999999999998</v>
       </c>
       <c r="C107" t="s">
@@ -5106,7 +5244,8 @@
         <v>88</v>
       </c>
       <c r="B108">
-        <v>0.90908999999999995</v>
+        <f>Wide!C8</f>
+        <v>0.625</v>
       </c>
       <c r="C108" t="s">
         <v>105</v>
@@ -5117,6 +5256,7 @@
         <v>25</v>
       </c>
       <c r="B109">
+        <f>Wide!C9</f>
         <v>0.75</v>
       </c>
       <c r="C109" t="s">
@@ -5128,6 +5268,7 @@
         <v>27</v>
       </c>
       <c r="B110">
+        <f>Wide!C10</f>
         <v>0.75</v>
       </c>
       <c r="C110" t="s">
@@ -5139,6 +5280,7 @@
         <v>28</v>
       </c>
       <c r="B111">
+        <f>Wide!C11</f>
         <v>1</v>
       </c>
       <c r="C111" t="s">
@@ -5150,6 +5292,7 @@
         <v>26</v>
       </c>
       <c r="B112">
+        <f>Wide!C12</f>
         <v>0.75</v>
       </c>
       <c r="C112" t="s">
@@ -5161,7 +5304,8 @@
         <v>36</v>
       </c>
       <c r="B113">
-        <v>0.4</v>
+        <f>Wide!C13</f>
+        <v>0.66666999999999998</v>
       </c>
       <c r="C113" t="s">
         <v>105</v>
@@ -5172,7 +5316,8 @@
         <v>35</v>
       </c>
       <c r="B114">
-        <v>0.7</v>
+        <f>Wide!C14</f>
+        <v>0.83333000000000002</v>
       </c>
       <c r="C114" t="s">
         <v>105</v>
@@ -5183,6 +5328,7 @@
         <v>5</v>
       </c>
       <c r="B115">
+        <f>Wide!C15</f>
         <v>1</v>
       </c>
       <c r="C115" t="s">
@@ -5194,6 +5340,7 @@
         <v>6</v>
       </c>
       <c r="B116">
+        <f>Wide!C16</f>
         <v>1</v>
       </c>
       <c r="C116" t="s">
@@ -5205,7 +5352,8 @@
         <v>7</v>
       </c>
       <c r="B117">
-        <v>6.8180000000000004E-2</v>
+        <f>Wide!C17</f>
+        <v>0.15789</v>
       </c>
       <c r="C117" t="s">
         <v>105</v>
@@ -5216,6 +5364,7 @@
         <v>31</v>
       </c>
       <c r="B118">
+        <f>Wide!C18</f>
         <v>0</v>
       </c>
       <c r="C118" t="s">
@@ -5227,6 +5376,7 @@
         <v>32</v>
       </c>
       <c r="B119">
+        <f>Wide!C19</f>
         <v>0</v>
       </c>
       <c r="C119" t="s">
@@ -5238,7 +5388,8 @@
         <v>30</v>
       </c>
       <c r="B120">
-        <v>0.88888999999999996</v>
+        <f>Wide!C20</f>
+        <v>1</v>
       </c>
       <c r="C120" t="s">
         <v>105</v>
@@ -5249,6 +5400,7 @@
         <v>100</v>
       </c>
       <c r="B121">
+        <f>Wide!C21</f>
         <v>1</v>
       </c>
       <c r="C121" t="s">
@@ -5260,6 +5412,7 @@
         <v>67</v>
       </c>
       <c r="B122">
+        <f>Wide!C22</f>
         <v>1</v>
       </c>
       <c r="C122" t="s">
@@ -5271,6 +5424,7 @@
         <v>66</v>
       </c>
       <c r="B123">
+        <f>Wide!C23</f>
         <v>1</v>
       </c>
       <c r="C123" t="s">
@@ -5282,7 +5436,8 @@
         <v>78</v>
       </c>
       <c r="B124">
-        <v>0.57499999999999996</v>
+        <f>Wide!C24</f>
+        <v>0.69564999999999999</v>
       </c>
       <c r="C124" t="s">
         <v>105</v>
@@ -5293,7 +5448,8 @@
         <v>79</v>
       </c>
       <c r="B125">
-        <v>0.45</v>
+        <f>Wide!C25</f>
+        <v>0.30435000000000001</v>
       </c>
       <c r="C125" t="s">
         <v>105</v>
@@ -5304,7 +5460,8 @@
         <v>71</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <f>Wide!C26</f>
+        <v>0.80435000000000001</v>
       </c>
       <c r="C126" t="s">
         <v>105</v>
@@ -5315,7 +5472,8 @@
         <v>72</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <f>Wide!C27</f>
+        <v>0.84782999999999997</v>
       </c>
       <c r="C127" t="s">
         <v>105</v>
@@ -5326,6 +5484,7 @@
         <v>81</v>
       </c>
       <c r="B128">
+        <f>Wide!C28</f>
         <v>1</v>
       </c>
       <c r="C128" t="s">
@@ -5337,7 +5496,8 @@
         <v>74</v>
       </c>
       <c r="B129">
-        <v>0.13750000000000001</v>
+        <f>Wide!C29</f>
+        <v>0.19564999999999999</v>
       </c>
       <c r="C129" t="s">
         <v>105</v>
@@ -5348,7 +5508,8 @@
         <v>73</v>
       </c>
       <c r="B130">
-        <v>0.5625</v>
+        <f>Wide!C30</f>
+        <v>0.58696000000000004</v>
       </c>
       <c r="C130" t="s">
         <v>105</v>
@@ -5359,7 +5520,8 @@
         <v>75</v>
       </c>
       <c r="B131">
-        <v>0.3</v>
+        <f>Wide!C31</f>
+        <v>0.36957000000000001</v>
       </c>
       <c r="C131" t="s">
         <v>105</v>
@@ -5370,7 +5532,8 @@
         <v>82</v>
       </c>
       <c r="B132">
-        <v>0.83333000000000002</v>
+        <f>Wide!C32</f>
+        <v>0.93332999999999999</v>
       </c>
       <c r="C132" t="s">
         <v>105</v>
@@ -5381,7 +5544,8 @@
         <v>80</v>
       </c>
       <c r="B133">
-        <v>6.25E-2</v>
+        <f>Wide!C33</f>
+        <v>6.522E-2</v>
       </c>
       <c r="C133" t="s">
         <v>105</v>
@@ -5392,7 +5556,8 @@
         <v>76</v>
       </c>
       <c r="B134">
-        <v>0.9375</v>
+        <f>Wide!C34</f>
+        <v>0.97826000000000002</v>
       </c>
       <c r="C134" t="s">
         <v>105</v>
@@ -5403,7 +5568,8 @@
         <v>77</v>
       </c>
       <c r="B135">
-        <v>0.9</v>
+        <f>Wide!C35</f>
+        <v>0.80435000000000001</v>
       </c>
       <c r="C135" t="s">
         <v>105</v>
@@ -5414,7 +5580,8 @@
         <v>15</v>
       </c>
       <c r="B136">
-        <v>0.86667000000000005</v>
+        <f>Wide!C36</f>
+        <v>0.94118000000000002</v>
       </c>
       <c r="C136" t="s">
         <v>105</v>
@@ -5425,6 +5592,7 @@
         <v>17</v>
       </c>
       <c r="B137">
+        <f>Wide!C37</f>
         <v>1</v>
       </c>
       <c r="C137" t="s">
@@ -5436,6 +5604,7 @@
         <v>16</v>
       </c>
       <c r="B138">
+        <f>Wide!C38</f>
         <v>1</v>
       </c>
       <c r="C138" t="s">
@@ -5447,7 +5616,8 @@
         <v>19</v>
       </c>
       <c r="B139">
-        <v>0.1</v>
+        <f>Wide!C39</f>
+        <v>0.17646999999999999</v>
       </c>
       <c r="C139" t="s">
         <v>105</v>
@@ -5458,7 +5628,8 @@
         <v>18</v>
       </c>
       <c r="B140">
-        <v>0.7</v>
+        <f>Wide!C40</f>
+        <v>0.82352999999999998</v>
       </c>
       <c r="C140" t="s">
         <v>105</v>
@@ -5469,7 +5640,8 @@
         <v>20</v>
       </c>
       <c r="B141">
-        <v>0.36364000000000002</v>
+        <f>Wide!C41</f>
+        <v>0.5</v>
       </c>
       <c r="C141" t="s">
         <v>105</v>
@@ -5480,7 +5652,8 @@
         <v>90</v>
       </c>
       <c r="B142">
-        <v>0.98995</v>
+        <f>Wide!C42</f>
+        <v>0.97248000000000001</v>
       </c>
       <c r="C142" t="s">
         <v>105</v>
@@ -5491,6 +5664,7 @@
         <v>89</v>
       </c>
       <c r="B143">
+        <f>Wide!C43</f>
         <v>1</v>
       </c>
       <c r="C143" t="s">
@@ -5502,7 +5676,8 @@
         <v>93</v>
       </c>
       <c r="B144">
-        <v>0.88083</v>
+        <f>Wide!C44</f>
+        <v>0.91429000000000005</v>
       </c>
       <c r="C144" t="s">
         <v>105</v>
@@ -5513,6 +5688,7 @@
         <v>94</v>
       </c>
       <c r="B145">
+        <f>Wide!C45</f>
         <v>0.8</v>
       </c>
       <c r="C145" t="s">
@@ -5524,6 +5700,7 @@
         <v>91</v>
       </c>
       <c r="B146">
+        <f>Wide!C46</f>
         <v>1</v>
       </c>
       <c r="C146" t="s">
@@ -5535,7 +5712,8 @@
         <v>96</v>
       </c>
       <c r="B147">
-        <v>0.25</v>
+        <f>Wide!C47</f>
+        <v>0.33333000000000002</v>
       </c>
       <c r="C147" t="s">
         <v>105</v>
@@ -5546,6 +5724,7 @@
         <v>95</v>
       </c>
       <c r="B148">
+        <f>Wide!C48</f>
         <v>1</v>
       </c>
       <c r="C148" t="s">
@@ -5557,7 +5736,8 @@
         <v>92</v>
       </c>
       <c r="B149">
-        <v>0.98492000000000002</v>
+        <f>Wide!C49</f>
+        <v>0.98165000000000002</v>
       </c>
       <c r="C149" t="s">
         <v>105</v>
@@ -5568,6 +5748,7 @@
         <v>99</v>
       </c>
       <c r="B150">
+        <f>Wide!C50</f>
         <v>1</v>
       </c>
       <c r="C150" t="s">
@@ -5579,7 +5760,8 @@
         <v>64</v>
       </c>
       <c r="B151">
-        <v>0.88888999999999996</v>
+        <f>Wide!C51</f>
+        <v>1</v>
       </c>
       <c r="C151" t="s">
         <v>105</v>
@@ -5590,6 +5772,7 @@
         <v>65</v>
       </c>
       <c r="B152">
+        <f>Wide!C52</f>
         <v>0</v>
       </c>
       <c r="C152" t="s">
@@ -5601,7 +5784,8 @@
         <v>63</v>
       </c>
       <c r="B153">
-        <v>0.88888999999999996</v>
+        <f>Wide!C53</f>
+        <v>1</v>
       </c>
       <c r="C153" t="s">
         <v>105</v>
@@ -5612,7 +5796,8 @@
         <v>11</v>
       </c>
       <c r="B154">
-        <v>4.5449999999999997E-2</v>
+        <f>Wide!C54</f>
+        <v>6.6669999999999993E-2</v>
       </c>
       <c r="C154" t="s">
         <v>105</v>
@@ -5623,7 +5808,8 @@
         <v>13</v>
       </c>
       <c r="B155">
-        <v>0.88461999999999996</v>
+        <f>Wide!C55</f>
+        <v>0.90908999999999995</v>
       </c>
       <c r="C155" t="s">
         <v>105</v>
@@ -5634,6 +5820,7 @@
         <v>9</v>
       </c>
       <c r="B156">
+        <f>Wide!C56</f>
         <v>1</v>
       </c>
       <c r="C156" t="s">
@@ -5645,7 +5832,8 @@
         <v>10</v>
       </c>
       <c r="B157">
-        <v>0.79544999999999999</v>
+        <f>Wide!C57</f>
+        <v>0.93332999999999999</v>
       </c>
       <c r="C157" t="s">
         <v>105</v>
@@ -5656,6 +5844,7 @@
         <v>14</v>
       </c>
       <c r="B158">
+        <f>Wide!C58</f>
         <v>1</v>
       </c>
       <c r="C158" t="s">
@@ -5667,7 +5856,8 @@
         <v>12</v>
       </c>
       <c r="B159">
-        <v>3.8460000000000001E-2</v>
+        <f>Wide!C59</f>
+        <v>4.5449999999999997E-2</v>
       </c>
       <c r="C159" t="s">
         <v>105</v>
@@ -5678,7 +5868,8 @@
         <v>8</v>
       </c>
       <c r="B160">
-        <v>0.93181999999999998</v>
+        <f>Wide!C60</f>
+        <v>0.9</v>
       </c>
       <c r="C160" t="s">
         <v>105</v>
@@ -5689,7 +5880,8 @@
         <v>60</v>
       </c>
       <c r="B161">
-        <v>0.47059000000000001</v>
+        <f>Wide!C61</f>
+        <v>1</v>
       </c>
       <c r="C161" t="s">
         <v>105</v>
@@ -5700,6 +5892,7 @@
         <v>62</v>
       </c>
       <c r="B162">
+        <f>Wide!C62</f>
         <v>0</v>
       </c>
       <c r="C162" t="s">
@@ -5711,7 +5904,8 @@
         <v>61</v>
       </c>
       <c r="B163">
-        <v>0.11765</v>
+        <f>Wide!C63</f>
+        <v>0.28571000000000002</v>
       </c>
       <c r="C163" t="s">
         <v>105</v>
@@ -5722,7 +5916,8 @@
         <v>59</v>
       </c>
       <c r="B164">
-        <v>0.41176000000000001</v>
+        <f>Wide!C64</f>
+        <v>1</v>
       </c>
       <c r="C164" t="s">
         <v>105</v>
@@ -5733,6 +5928,7 @@
         <v>2</v>
       </c>
       <c r="B165">
+        <f>Wide!C65</f>
         <v>1</v>
       </c>
       <c r="C165" t="s">
@@ -5744,6 +5940,7 @@
         <v>1</v>
       </c>
       <c r="B166">
+        <f>Wide!C66</f>
         <v>1</v>
       </c>
       <c r="C166" t="s">
@@ -5755,6 +5952,7 @@
         <v>3</v>
       </c>
       <c r="B167">
+        <f>Wide!C67</f>
         <v>1</v>
       </c>
       <c r="C167" t="s">
@@ -5766,7 +5964,8 @@
         <v>4</v>
       </c>
       <c r="B168">
-        <v>0.25</v>
+        <f>Wide!C68</f>
+        <v>0.33333000000000002</v>
       </c>
       <c r="C168" t="s">
         <v>105</v>
@@ -5777,6 +5976,7 @@
         <v>21</v>
       </c>
       <c r="B169">
+        <f>Wide!C69</f>
         <v>0.75</v>
       </c>
       <c r="C169" t="s">
@@ -5788,6 +5988,7 @@
         <v>23</v>
       </c>
       <c r="B170">
+        <f>Wide!C70</f>
         <v>0.75</v>
       </c>
       <c r="C170" t="s">
@@ -5799,6 +6000,7 @@
         <v>24</v>
       </c>
       <c r="B171">
+        <f>Wide!C71</f>
         <v>1</v>
       </c>
       <c r="C171" t="s">
@@ -5810,6 +6012,7 @@
         <v>22</v>
       </c>
       <c r="B172">
+        <f>Wide!C72</f>
         <v>0.75</v>
       </c>
       <c r="C172" t="s">
@@ -5821,7 +6024,8 @@
         <v>40</v>
       </c>
       <c r="B173">
-        <v>0.98889000000000005</v>
+        <f>Wide!C73</f>
+        <v>0.82857000000000003</v>
       </c>
       <c r="C173" t="s">
         <v>105</v>
@@ -5832,7 +6036,8 @@
         <v>41</v>
       </c>
       <c r="B174">
-        <v>0.98889000000000005</v>
+        <f>Wide!C74</f>
+        <v>0.82857000000000003</v>
       </c>
       <c r="C174" t="s">
         <v>105</v>
@@ -5843,6 +6048,7 @@
         <v>45</v>
       </c>
       <c r="B175">
+        <f>Wide!C75</f>
         <v>1</v>
       </c>
       <c r="C175" t="s">
@@ -5854,6 +6060,7 @@
         <v>42</v>
       </c>
       <c r="B176">
+        <f>Wide!C76</f>
         <v>1</v>
       </c>
       <c r="C176" t="s">
@@ -5865,7 +6072,8 @@
         <v>43</v>
       </c>
       <c r="B177">
-        <v>0.84443999999999997</v>
+        <f>Wide!C77</f>
+        <v>0.57142999999999999</v>
       </c>
       <c r="C177" t="s">
         <v>105</v>
@@ -5876,7 +6084,8 @@
         <v>46</v>
       </c>
       <c r="B178">
-        <v>0.14285999999999999</v>
+        <f>Wide!C78</f>
+        <v>0.33333000000000002</v>
       </c>
       <c r="C178" t="s">
         <v>105</v>
@@ -5887,7 +6096,8 @@
         <v>48</v>
       </c>
       <c r="B179">
-        <v>0.58333000000000002</v>
+        <f>Wide!C79</f>
+        <v>0.625</v>
       </c>
       <c r="C179" t="s">
         <v>105</v>
@@ -5898,6 +6108,7 @@
         <v>49</v>
       </c>
       <c r="B180">
+        <f>Wide!C80</f>
         <v>0</v>
       </c>
       <c r="C180" t="s">
@@ -5909,6 +6120,7 @@
         <v>47</v>
       </c>
       <c r="B181">
+        <f>Wide!C81</f>
         <v>1</v>
       </c>
       <c r="C181" t="s">
@@ -5920,7 +6132,8 @@
         <v>44</v>
       </c>
       <c r="B182">
-        <v>0.18889</v>
+        <f>Wide!C82</f>
+        <v>0.28571000000000002</v>
       </c>
       <c r="C182" t="s">
         <v>105</v>
@@ -5931,7 +6144,8 @@
         <v>51</v>
       </c>
       <c r="B183">
-        <v>0.98507</v>
+        <f>Wide!C83</f>
+        <v>1</v>
       </c>
       <c r="C183" t="s">
         <v>105</v>
@@ -5942,7 +6156,8 @@
         <v>52</v>
       </c>
       <c r="B184">
-        <v>0.10448</v>
+        <f>Wide!C84</f>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C184" t="s">
         <v>105</v>
@@ -5953,7 +6168,8 @@
         <v>55</v>
       </c>
       <c r="B185">
-        <v>0.49253999999999998</v>
+        <f>Wide!C85</f>
+        <v>0.52500000000000002</v>
       </c>
       <c r="C185" t="s">
         <v>105</v>
@@ -5964,6 +6180,7 @@
         <v>58</v>
       </c>
       <c r="B186">
+        <f>Wide!C86</f>
         <v>1</v>
       </c>
       <c r="C186" t="s">
@@ -5975,7 +6192,8 @@
         <v>50</v>
       </c>
       <c r="B187">
-        <v>0.95521999999999996</v>
+        <f>Wide!C87</f>
+        <v>1</v>
       </c>
       <c r="C187" t="s">
         <v>105</v>
@@ -5986,7 +6204,8 @@
         <v>56</v>
       </c>
       <c r="B188">
-        <v>0.71641999999999995</v>
+        <f>Wide!C88</f>
+        <v>0.8</v>
       </c>
       <c r="C188" t="s">
         <v>105</v>
@@ -5997,7 +6216,8 @@
         <v>54</v>
       </c>
       <c r="B189">
-        <v>0.55223999999999995</v>
+        <f>Wide!C89</f>
+        <v>0.67500000000000004</v>
       </c>
       <c r="C189" t="s">
         <v>105</v>
@@ -6008,6 +6228,7 @@
         <v>53</v>
       </c>
       <c r="B190">
+        <f>Wide!C90</f>
         <v>1</v>
       </c>
       <c r="C190" t="s">
@@ -6019,7 +6240,8 @@
         <v>57</v>
       </c>
       <c r="B191">
-        <v>0.10448</v>
+        <f>Wide!C91</f>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C191" t="s">
         <v>105</v>
@@ -6030,7 +6252,8 @@
         <v>33</v>
       </c>
       <c r="B192">
-        <v>0.875</v>
+        <f>Wide!C92</f>
+        <v>0.83333000000000002</v>
       </c>
       <c r="C192" t="s">
         <v>105</v>
@@ -6041,7 +6264,8 @@
         <v>34</v>
       </c>
       <c r="B193">
-        <v>0.75</v>
+        <f>Wide!C93</f>
+        <v>0.83333000000000002</v>
       </c>
       <c r="C193" t="s">
         <v>105</v>
@@ -6052,6 +6276,7 @@
         <v>70</v>
       </c>
       <c r="B194">
+        <f>Wide!C94</f>
         <v>1</v>
       </c>
       <c r="C194" t="s">
@@ -6063,6 +6288,7 @@
         <v>69</v>
       </c>
       <c r="B195">
+        <f>Wide!C95</f>
         <v>1</v>
       </c>
       <c r="C195" t="s">
@@ -6074,6 +6300,7 @@
         <v>68</v>
       </c>
       <c r="B196">
+        <f>Wide!C96</f>
         <v>1</v>
       </c>
       <c r="C196" t="s">
@@ -6085,6 +6312,7 @@
         <v>37</v>
       </c>
       <c r="B197">
+        <f>Wide!C97</f>
         <v>1</v>
       </c>
       <c r="C197" t="s">
@@ -6096,6 +6324,7 @@
         <v>38</v>
       </c>
       <c r="B198">
+        <f>Wide!C98</f>
         <v>1</v>
       </c>
       <c r="C198" t="s">
@@ -6107,6 +6336,7 @@
         <v>98</v>
       </c>
       <c r="B199">
+        <f>Wide!C99</f>
         <v>1</v>
       </c>
       <c r="C199" t="s">
@@ -6118,6 +6348,7 @@
         <v>97</v>
       </c>
       <c r="B200">
+        <f>Wide!C100</f>
         <v>0.66666999999999998</v>
       </c>
       <c r="C200" t="s">
@@ -6129,6 +6360,7 @@
         <v>39</v>
       </c>
       <c r="B201">
+        <f>Wide!C101</f>
         <v>0.5</v>
       </c>
       <c r="C201" t="s">
@@ -6140,6 +6372,7 @@
         <v>29</v>
       </c>
       <c r="B202">
+        <f>Wide!D2</f>
         <v>1</v>
       </c>
       <c r="C202" t="s">
@@ -6151,7 +6384,8 @@
         <v>83</v>
       </c>
       <c r="B203">
-        <v>0.66666999999999998</v>
+        <f>Wide!D3</f>
+        <v>0.69443999999999995</v>
       </c>
       <c r="C203" t="s">
         <v>104</v>
@@ -6162,7 +6396,8 @@
         <v>84</v>
       </c>
       <c r="B204">
-        <v>0.75309000000000004</v>
+        <f>Wide!D4</f>
+        <v>0.80556000000000005</v>
       </c>
       <c r="C204" t="s">
         <v>104</v>
@@ -6173,7 +6408,8 @@
         <v>85</v>
       </c>
       <c r="B205">
-        <v>0.75309000000000004</v>
+        <f>Wide!D5</f>
+        <v>0.88888999999999996</v>
       </c>
       <c r="C205" t="s">
         <v>104</v>
@@ -6184,7 +6420,8 @@
         <v>86</v>
       </c>
       <c r="B206">
-        <v>0.86419999999999997</v>
+        <f>Wide!D6</f>
+        <v>0.97221999999999997</v>
       </c>
       <c r="C206" t="s">
         <v>104</v>
@@ -6195,6 +6432,7 @@
         <v>87</v>
       </c>
       <c r="B207">
+        <f>Wide!D7</f>
         <v>0.66666999999999998</v>
       </c>
       <c r="C207" t="s">
@@ -6206,7 +6444,8 @@
         <v>88</v>
       </c>
       <c r="B208">
-        <v>0.90908999999999995</v>
+        <f>Wide!D8</f>
+        <v>0.625</v>
       </c>
       <c r="C208" t="s">
         <v>104</v>
@@ -6217,6 +6456,7 @@
         <v>25</v>
       </c>
       <c r="B209">
+        <f>Wide!D9</f>
         <v>0.75</v>
       </c>
       <c r="C209" t="s">
@@ -6228,6 +6468,7 @@
         <v>27</v>
       </c>
       <c r="B210">
+        <f>Wide!D10</f>
         <v>0.75</v>
       </c>
       <c r="C210" t="s">
@@ -6239,6 +6480,7 @@
         <v>28</v>
       </c>
       <c r="B211">
+        <f>Wide!D11</f>
         <v>1</v>
       </c>
       <c r="C211" t="s">
@@ -6250,6 +6492,7 @@
         <v>26</v>
       </c>
       <c r="B212">
+        <f>Wide!D12</f>
         <v>0.75</v>
       </c>
       <c r="C212" t="s">
@@ -6261,7 +6504,8 @@
         <v>36</v>
       </c>
       <c r="B213">
-        <v>0.4</v>
+        <f>Wide!D13</f>
+        <v>0.66666999999999998</v>
       </c>
       <c r="C213" t="s">
         <v>104</v>
@@ -6272,7 +6516,8 @@
         <v>35</v>
       </c>
       <c r="B214">
-        <v>0.7</v>
+        <f>Wide!D14</f>
+        <v>0.83333000000000002</v>
       </c>
       <c r="C214" t="s">
         <v>104</v>
@@ -6283,6 +6528,7 @@
         <v>5</v>
       </c>
       <c r="B215">
+        <f>Wide!D15</f>
         <v>1</v>
       </c>
       <c r="C215" t="s">
@@ -6294,6 +6540,7 @@
         <v>6</v>
       </c>
       <c r="B216">
+        <f>Wide!D16</f>
         <v>1</v>
       </c>
       <c r="C216" t="s">
@@ -6305,7 +6552,8 @@
         <v>7</v>
       </c>
       <c r="B217">
-        <v>6.8180000000000004E-2</v>
+        <f>Wide!D17</f>
+        <v>0.15789</v>
       </c>
       <c r="C217" t="s">
         <v>104</v>
@@ -6316,7 +6564,8 @@
         <v>31</v>
       </c>
       <c r="B218">
-        <v>0.22222</v>
+        <f>Wide!D18</f>
+        <v>0.5</v>
       </c>
       <c r="C218" t="s">
         <v>104</v>
@@ -6327,6 +6576,7 @@
         <v>32</v>
       </c>
       <c r="B219">
+        <f>Wide!D19</f>
         <v>0</v>
       </c>
       <c r="C219" t="s">
@@ -6338,7 +6588,8 @@
         <v>30</v>
       </c>
       <c r="B220">
-        <v>0.88888999999999996</v>
+        <f>Wide!D20</f>
+        <v>1</v>
       </c>
       <c r="C220" t="s">
         <v>104</v>
@@ -6349,6 +6600,7 @@
         <v>100</v>
       </c>
       <c r="B221">
+        <f>Wide!D21</f>
         <v>1</v>
       </c>
       <c r="C221" t="s">
@@ -6360,6 +6612,7 @@
         <v>67</v>
       </c>
       <c r="B222">
+        <f>Wide!D22</f>
         <v>1</v>
       </c>
       <c r="C222" t="s">
@@ -6371,6 +6624,7 @@
         <v>66</v>
       </c>
       <c r="B223">
+        <f>Wide!D23</f>
         <v>1</v>
       </c>
       <c r="C223" t="s">
@@ -6382,7 +6636,8 @@
         <v>78</v>
       </c>
       <c r="B224">
-        <v>0.57499999999999996</v>
+        <f>Wide!D24</f>
+        <v>0.69564999999999999</v>
       </c>
       <c r="C224" t="s">
         <v>104</v>
@@ -6393,7 +6648,8 @@
         <v>79</v>
       </c>
       <c r="B225">
-        <v>0.45</v>
+        <f>Wide!D25</f>
+        <v>0.30435000000000001</v>
       </c>
       <c r="C225" t="s">
         <v>104</v>
@@ -6404,7 +6660,8 @@
         <v>71</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <f>Wide!D26</f>
+        <v>0.80435000000000001</v>
       </c>
       <c r="C226" t="s">
         <v>104</v>
@@ -6415,6 +6672,7 @@
         <v>72</v>
       </c>
       <c r="B227">
+        <f>Wide!D27</f>
         <v>1</v>
       </c>
       <c r="C227" t="s">
@@ -6426,6 +6684,7 @@
         <v>81</v>
       </c>
       <c r="B228">
+        <f>Wide!D28</f>
         <v>1</v>
       </c>
       <c r="C228" t="s">
@@ -6437,7 +6696,8 @@
         <v>74</v>
       </c>
       <c r="B229">
-        <v>0.13750000000000001</v>
+        <f>Wide!D29</f>
+        <v>0.19564999999999999</v>
       </c>
       <c r="C229" t="s">
         <v>104</v>
@@ -6448,7 +6708,8 @@
         <v>73</v>
       </c>
       <c r="B230">
-        <v>0.5625</v>
+        <f>Wide!D30</f>
+        <v>0.58696000000000004</v>
       </c>
       <c r="C230" t="s">
         <v>104</v>
@@ -6459,7 +6720,8 @@
         <v>75</v>
       </c>
       <c r="B231">
-        <v>0.3</v>
+        <f>Wide!D31</f>
+        <v>0.36957000000000001</v>
       </c>
       <c r="C231" t="s">
         <v>104</v>
@@ -6470,7 +6732,8 @@
         <v>82</v>
       </c>
       <c r="B232">
-        <v>0.83333000000000002</v>
+        <f>Wide!D32</f>
+        <v>0.93332999999999999</v>
       </c>
       <c r="C232" t="s">
         <v>104</v>
@@ -6481,7 +6744,8 @@
         <v>80</v>
       </c>
       <c r="B233">
-        <v>6.25E-2</v>
+        <f>Wide!D33</f>
+        <v>6.522E-2</v>
       </c>
       <c r="C233" t="s">
         <v>104</v>
@@ -6492,7 +6756,8 @@
         <v>76</v>
       </c>
       <c r="B234">
-        <v>0.9375</v>
+        <f>Wide!D34</f>
+        <v>0.97826000000000002</v>
       </c>
       <c r="C234" t="s">
         <v>104</v>
@@ -6503,7 +6768,8 @@
         <v>77</v>
       </c>
       <c r="B235">
-        <v>0.9</v>
+        <f>Wide!D35</f>
+        <v>0.80435000000000001</v>
       </c>
       <c r="C235" t="s">
         <v>104</v>
@@ -6514,7 +6780,8 @@
         <v>15</v>
       </c>
       <c r="B236">
-        <v>0.86667000000000005</v>
+        <f>Wide!D36</f>
+        <v>0.94118000000000002</v>
       </c>
       <c r="C236" t="s">
         <v>104</v>
@@ -6525,6 +6792,7 @@
         <v>17</v>
       </c>
       <c r="B237">
+        <f>Wide!D37</f>
         <v>1</v>
       </c>
       <c r="C237" t="s">
@@ -6536,6 +6804,7 @@
         <v>16</v>
       </c>
       <c r="B238">
+        <f>Wide!D38</f>
         <v>1</v>
       </c>
       <c r="C238" t="s">
@@ -6547,7 +6816,8 @@
         <v>19</v>
       </c>
       <c r="B239">
-        <v>0.1</v>
+        <f>Wide!D39</f>
+        <v>0.17646999999999999</v>
       </c>
       <c r="C239" t="s">
         <v>104</v>
@@ -6558,7 +6828,8 @@
         <v>18</v>
       </c>
       <c r="B240">
-        <v>0.7</v>
+        <f>Wide!D40</f>
+        <v>0.82352999999999998</v>
       </c>
       <c r="C240" t="s">
         <v>104</v>
@@ -6569,7 +6840,8 @@
         <v>20</v>
       </c>
       <c r="B241">
-        <v>0.36364000000000002</v>
+        <f>Wide!D41</f>
+        <v>0.5</v>
       </c>
       <c r="C241" t="s">
         <v>104</v>
@@ -6580,7 +6852,8 @@
         <v>90</v>
       </c>
       <c r="B242">
-        <v>0.98995</v>
+        <f>Wide!D42</f>
+        <v>0.97248000000000001</v>
       </c>
       <c r="C242" t="s">
         <v>104</v>
@@ -6591,6 +6864,7 @@
         <v>89</v>
       </c>
       <c r="B243">
+        <f>Wide!D43</f>
         <v>1</v>
       </c>
       <c r="C243" t="s">
@@ -6602,7 +6876,8 @@
         <v>93</v>
       </c>
       <c r="B244">
-        <v>0.88083</v>
+        <f>Wide!D44</f>
+        <v>0.91429000000000005</v>
       </c>
       <c r="C244" t="s">
         <v>104</v>
@@ -6613,6 +6888,7 @@
         <v>94</v>
       </c>
       <c r="B245">
+        <f>Wide!D45</f>
         <v>0.8</v>
       </c>
       <c r="C245" t="s">
@@ -6624,6 +6900,7 @@
         <v>91</v>
       </c>
       <c r="B246">
+        <f>Wide!D46</f>
         <v>1</v>
       </c>
       <c r="C246" t="s">
@@ -6635,7 +6912,8 @@
         <v>96</v>
       </c>
       <c r="B247">
-        <v>0.25</v>
+        <f>Wide!D47</f>
+        <v>0.33333000000000002</v>
       </c>
       <c r="C247" t="s">
         <v>104</v>
@@ -6646,6 +6924,7 @@
         <v>95</v>
       </c>
       <c r="B248">
+        <f>Wide!D48</f>
         <v>1</v>
       </c>
       <c r="C248" t="s">
@@ -6657,7 +6936,8 @@
         <v>92</v>
       </c>
       <c r="B249">
-        <v>0.98492000000000002</v>
+        <f>Wide!D49</f>
+        <v>0.98165000000000002</v>
       </c>
       <c r="C249" t="s">
         <v>104</v>
@@ -6668,6 +6948,7 @@
         <v>99</v>
       </c>
       <c r="B250">
+        <f>Wide!D50</f>
         <v>1</v>
       </c>
       <c r="C250" t="s">
@@ -6679,7 +6960,8 @@
         <v>64</v>
       </c>
       <c r="B251">
-        <v>0.88888999999999996</v>
+        <f>Wide!D51</f>
+        <v>1</v>
       </c>
       <c r="C251" t="s">
         <v>104</v>
@@ -6690,7 +6972,8 @@
         <v>65</v>
       </c>
       <c r="B252">
-        <v>0.44444</v>
+        <f>Wide!D52</f>
+        <v>0.66666999999999998</v>
       </c>
       <c r="C252" t="s">
         <v>104</v>
@@ -6701,7 +6984,8 @@
         <v>63</v>
       </c>
       <c r="B253">
-        <v>0.88888999999999996</v>
+        <f>Wide!D53</f>
+        <v>1</v>
       </c>
       <c r="C253" t="s">
         <v>104</v>
@@ -6712,7 +6996,8 @@
         <v>11</v>
       </c>
       <c r="B254">
-        <v>4.5449999999999997E-2</v>
+        <f>Wide!D54</f>
+        <v>6.6669999999999993E-2</v>
       </c>
       <c r="C254" t="s">
         <v>104</v>
@@ -6723,7 +7008,8 @@
         <v>13</v>
       </c>
       <c r="B255">
-        <v>0.88461999999999996</v>
+        <f>Wide!D55</f>
+        <v>0.90908999999999995</v>
       </c>
       <c r="C255" t="s">
         <v>104</v>
@@ -6734,6 +7020,7 @@
         <v>9</v>
       </c>
       <c r="B256">
+        <f>Wide!D56</f>
         <v>1</v>
       </c>
       <c r="C256" t="s">
@@ -6745,7 +7032,8 @@
         <v>10</v>
       </c>
       <c r="B257">
-        <v>0.79544999999999999</v>
+        <f>Wide!D57</f>
+        <v>0.93332999999999999</v>
       </c>
       <c r="C257" t="s">
         <v>104</v>
@@ -6756,6 +7044,7 @@
         <v>14</v>
       </c>
       <c r="B258">
+        <f>Wide!D58</f>
         <v>1</v>
       </c>
       <c r="C258" t="s">
@@ -6767,7 +7056,8 @@
         <v>12</v>
       </c>
       <c r="B259">
-        <v>3.8460000000000001E-2</v>
+        <f>Wide!D59</f>
+        <v>4.5449999999999997E-2</v>
       </c>
       <c r="C259" t="s">
         <v>104</v>
@@ -6778,7 +7068,8 @@
         <v>8</v>
       </c>
       <c r="B260">
-        <v>0.93181999999999998</v>
+        <f>Wide!D60</f>
+        <v>0.9</v>
       </c>
       <c r="C260" t="s">
         <v>104</v>
@@ -6789,7 +7080,8 @@
         <v>60</v>
       </c>
       <c r="B261">
-        <v>0.47059000000000001</v>
+        <f>Wide!D61</f>
+        <v>1</v>
       </c>
       <c r="C261" t="s">
         <v>104</v>
@@ -6800,7 +7092,8 @@
         <v>62</v>
       </c>
       <c r="B262">
-        <v>0.17646999999999999</v>
+        <f>Wide!D62</f>
+        <v>0.42857000000000001</v>
       </c>
       <c r="C262" t="s">
         <v>104</v>
@@ -6811,7 +7104,8 @@
         <v>61</v>
       </c>
       <c r="B263">
-        <v>0.11765</v>
+        <f>Wide!D63</f>
+        <v>0.28571000000000002</v>
       </c>
       <c r="C263" t="s">
         <v>104</v>
@@ -6822,7 +7116,8 @@
         <v>59</v>
       </c>
       <c r="B264">
-        <v>0.41176000000000001</v>
+        <f>Wide!D64</f>
+        <v>1</v>
       </c>
       <c r="C264" t="s">
         <v>104</v>
@@ -6833,6 +7128,7 @@
         <v>2</v>
       </c>
       <c r="B265">
+        <f>Wide!D65</f>
         <v>1</v>
       </c>
       <c r="C265" t="s">
@@ -6844,6 +7140,7 @@
         <v>1</v>
       </c>
       <c r="B266">
+        <f>Wide!D66</f>
         <v>1</v>
       </c>
       <c r="C266" t="s">
@@ -6855,6 +7152,7 @@
         <v>3</v>
       </c>
       <c r="B267">
+        <f>Wide!D67</f>
         <v>1</v>
       </c>
       <c r="C267" t="s">
@@ -6866,7 +7164,8 @@
         <v>4</v>
       </c>
       <c r="B268">
-        <v>0.25</v>
+        <f>Wide!D68</f>
+        <v>0.33333000000000002</v>
       </c>
       <c r="C268" t="s">
         <v>104</v>
@@ -6877,6 +7176,7 @@
         <v>21</v>
       </c>
       <c r="B269">
+        <f>Wide!D69</f>
         <v>0.75</v>
       </c>
       <c r="C269" t="s">
@@ -6888,6 +7188,7 @@
         <v>23</v>
       </c>
       <c r="B270">
+        <f>Wide!D70</f>
         <v>0.75</v>
       </c>
       <c r="C270" t="s">
@@ -6899,6 +7200,7 @@
         <v>24</v>
       </c>
       <c r="B271">
+        <f>Wide!D71</f>
         <v>1</v>
       </c>
       <c r="C271" t="s">
@@ -6910,6 +7212,7 @@
         <v>22</v>
       </c>
       <c r="B272">
+        <f>Wide!D72</f>
         <v>0.75</v>
       </c>
       <c r="C272" t="s">
@@ -6921,7 +7224,8 @@
         <v>40</v>
       </c>
       <c r="B273">
-        <v>0.98889000000000005</v>
+        <f>Wide!D73</f>
+        <v>0.82857000000000003</v>
       </c>
       <c r="C273" t="s">
         <v>104</v>
@@ -6932,7 +7236,8 @@
         <v>41</v>
       </c>
       <c r="B274">
-        <v>0.98889000000000005</v>
+        <f>Wide!D74</f>
+        <v>0.94286000000000003</v>
       </c>
       <c r="C274" t="s">
         <v>104</v>
@@ -6943,6 +7248,7 @@
         <v>45</v>
       </c>
       <c r="B275">
+        <f>Wide!D75</f>
         <v>1</v>
       </c>
       <c r="C275" t="s">
@@ -6954,6 +7260,7 @@
         <v>42</v>
       </c>
       <c r="B276">
+        <f>Wide!D76</f>
         <v>1</v>
       </c>
       <c r="C276" t="s">
@@ -6965,7 +7272,8 @@
         <v>43</v>
       </c>
       <c r="B277">
-        <v>0.84443999999999997</v>
+        <f>Wide!D77</f>
+        <v>0.57142999999999999</v>
       </c>
       <c r="C277" t="s">
         <v>104</v>
@@ -6976,7 +7284,8 @@
         <v>46</v>
       </c>
       <c r="B278">
-        <v>0.14285999999999999</v>
+        <f>Wide!D78</f>
+        <v>0.33333000000000002</v>
       </c>
       <c r="C278" t="s">
         <v>104</v>
@@ -6987,7 +7296,8 @@
         <v>48</v>
       </c>
       <c r="B279">
-        <v>0.58333000000000002</v>
+        <f>Wide!D79</f>
+        <v>0.625</v>
       </c>
       <c r="C279" t="s">
         <v>104</v>
@@ -6998,6 +7308,7 @@
         <v>49</v>
       </c>
       <c r="B280">
+        <f>Wide!D80</f>
         <v>0</v>
       </c>
       <c r="C280" t="s">
@@ -7009,6 +7320,7 @@
         <v>47</v>
       </c>
       <c r="B281">
+        <f>Wide!D81</f>
         <v>1</v>
       </c>
       <c r="C281" t="s">
@@ -7020,7 +7332,8 @@
         <v>44</v>
       </c>
       <c r="B282">
-        <v>0.18889</v>
+        <f>Wide!D82</f>
+        <v>0.28571000000000002</v>
       </c>
       <c r="C282" t="s">
         <v>104</v>
@@ -7031,7 +7344,8 @@
         <v>51</v>
       </c>
       <c r="B283">
-        <v>0.98507</v>
+        <f>Wide!D83</f>
+        <v>1</v>
       </c>
       <c r="C283" t="s">
         <v>104</v>
@@ -7042,7 +7356,8 @@
         <v>52</v>
       </c>
       <c r="B284">
-        <v>0.10448</v>
+        <f>Wide!D84</f>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C284" t="s">
         <v>104</v>
@@ -7053,7 +7368,8 @@
         <v>55</v>
       </c>
       <c r="B285">
-        <v>0.49253999999999998</v>
+        <f>Wide!D85</f>
+        <v>0.52500000000000002</v>
       </c>
       <c r="C285" t="s">
         <v>104</v>
@@ -7064,6 +7380,7 @@
         <v>58</v>
       </c>
       <c r="B286">
+        <f>Wide!D86</f>
         <v>1</v>
       </c>
       <c r="C286" t="s">
@@ -7075,7 +7392,8 @@
         <v>50</v>
       </c>
       <c r="B287">
-        <v>0.95521999999999996</v>
+        <f>Wide!D87</f>
+        <v>1</v>
       </c>
       <c r="C287" t="s">
         <v>104</v>
@@ -7086,7 +7404,8 @@
         <v>56</v>
       </c>
       <c r="B288">
-        <v>0.71641999999999995</v>
+        <f>Wide!D88</f>
+        <v>0.8</v>
       </c>
       <c r="C288" t="s">
         <v>104</v>
@@ -7097,7 +7416,8 @@
         <v>54</v>
       </c>
       <c r="B289">
-        <v>0.55223999999999995</v>
+        <f>Wide!D89</f>
+        <v>0.67500000000000004</v>
       </c>
       <c r="C289" t="s">
         <v>104</v>
@@ -7108,6 +7428,7 @@
         <v>53</v>
       </c>
       <c r="B290">
+        <f>Wide!D90</f>
         <v>1</v>
       </c>
       <c r="C290" t="s">
@@ -7119,7 +7440,8 @@
         <v>57</v>
       </c>
       <c r="B291">
-        <v>0.10448</v>
+        <f>Wide!D91</f>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C291" t="s">
         <v>104</v>
@@ -7130,7 +7452,8 @@
         <v>33</v>
       </c>
       <c r="B292">
-        <v>0.875</v>
+        <f>Wide!D92</f>
+        <v>0.83333000000000002</v>
       </c>
       <c r="C292" t="s">
         <v>104</v>
@@ -7141,7 +7464,8 @@
         <v>34</v>
       </c>
       <c r="B293">
-        <v>0.75</v>
+        <f>Wide!D93</f>
+        <v>0.83333000000000002</v>
       </c>
       <c r="C293" t="s">
         <v>104</v>
@@ -7152,6 +7476,7 @@
         <v>70</v>
       </c>
       <c r="B294">
+        <f>Wide!D94</f>
         <v>1</v>
       </c>
       <c r="C294" t="s">
@@ -7163,6 +7488,7 @@
         <v>69</v>
       </c>
       <c r="B295">
+        <f>Wide!D95</f>
         <v>1</v>
       </c>
       <c r="C295" t="s">
@@ -7174,6 +7500,7 @@
         <v>68</v>
       </c>
       <c r="B296">
+        <f>Wide!D96</f>
         <v>1</v>
       </c>
       <c r="C296" t="s">
@@ -7185,6 +7512,7 @@
         <v>37</v>
       </c>
       <c r="B297">
+        <f>Wide!D97</f>
         <v>1</v>
       </c>
       <c r="C297" t="s">
@@ -7196,6 +7524,7 @@
         <v>38</v>
       </c>
       <c r="B298">
+        <f>Wide!D98</f>
         <v>1</v>
       </c>
       <c r="C298" t="s">
@@ -7207,6 +7536,7 @@
         <v>98</v>
       </c>
       <c r="B299">
+        <f>Wide!D99</f>
         <v>1</v>
       </c>
       <c r="C299" t="s">
@@ -7218,6 +7548,7 @@
         <v>97</v>
       </c>
       <c r="B300">
+        <f>Wide!D100</f>
         <v>1</v>
       </c>
       <c r="C300" t="s">
@@ -7229,6 +7560,7 @@
         <v>39</v>
       </c>
       <c r="B301">
+        <f>Wide!D101</f>
         <v>0.5</v>
       </c>
       <c r="C301" t="s">
@@ -7240,6 +7572,7 @@
         <v>29</v>
       </c>
       <c r="B302">
+        <f>Wide!E2</f>
         <v>1</v>
       </c>
       <c r="C302" t="s">
@@ -7251,6 +7584,7 @@
         <v>83</v>
       </c>
       <c r="B303">
+        <f>Wide!E3</f>
         <v>0.66666999999999998</v>
       </c>
       <c r="C303" t="s">
@@ -7262,7 +7596,8 @@
         <v>84</v>
       </c>
       <c r="B304">
-        <v>0.75309000000000004</v>
+        <f>Wide!E4</f>
+        <v>0.80556000000000005</v>
       </c>
       <c r="C304" t="s">
         <v>106</v>
@@ -7273,7 +7608,8 @@
         <v>85</v>
       </c>
       <c r="B305">
-        <v>0.59258999999999995</v>
+        <f>Wide!E5</f>
+        <v>0.77778000000000003</v>
       </c>
       <c r="C305" t="s">
         <v>106</v>
@@ -7284,7 +7620,8 @@
         <v>86</v>
       </c>
       <c r="B306">
-        <v>0.86419999999999997</v>
+        <f>Wide!E6</f>
+        <v>0.97221999999999997</v>
       </c>
       <c r="C306" t="s">
         <v>106</v>
@@ -7295,6 +7632,7 @@
         <v>87</v>
       </c>
       <c r="B307">
+        <f>Wide!E7</f>
         <v>0.66666999999999998</v>
       </c>
       <c r="C307" t="s">
@@ -7306,7 +7644,8 @@
         <v>88</v>
       </c>
       <c r="B308">
-        <v>0.90908999999999995</v>
+        <f>Wide!E8</f>
+        <v>0.625</v>
       </c>
       <c r="C308" t="s">
         <v>106</v>
@@ -7317,6 +7656,7 @@
         <v>25</v>
       </c>
       <c r="B309">
+        <f>Wide!E9</f>
         <v>1</v>
       </c>
       <c r="C309" t="s">
@@ -7328,6 +7668,7 @@
         <v>27</v>
       </c>
       <c r="B310">
+        <f>Wide!E10</f>
         <v>1</v>
       </c>
       <c r="C310" t="s">
@@ -7339,6 +7680,7 @@
         <v>28</v>
       </c>
       <c r="B311">
+        <f>Wide!E11</f>
         <v>1</v>
       </c>
       <c r="C311" t="s">
@@ -7350,6 +7692,7 @@
         <v>26</v>
       </c>
       <c r="B312">
+        <f>Wide!E12</f>
         <v>1</v>
       </c>
       <c r="C312" t="s">
@@ -7361,7 +7704,8 @@
         <v>36</v>
       </c>
       <c r="B313">
-        <v>0.4</v>
+        <f>Wide!E13</f>
+        <v>0.66666999999999998</v>
       </c>
       <c r="C313" t="s">
         <v>106</v>
@@ -7372,7 +7716,8 @@
         <v>35</v>
       </c>
       <c r="B314">
-        <v>0.8</v>
+        <f>Wide!E14</f>
+        <v>1</v>
       </c>
       <c r="C314" t="s">
         <v>106</v>
@@ -7383,6 +7728,7 @@
         <v>5</v>
       </c>
       <c r="B315">
+        <f>Wide!E15</f>
         <v>1</v>
       </c>
       <c r="C315" t="s">
@@ -7394,6 +7740,7 @@
         <v>6</v>
       </c>
       <c r="B316">
+        <f>Wide!E16</f>
         <v>1</v>
       </c>
       <c r="C316" t="s">
@@ -7405,7 +7752,8 @@
         <v>7</v>
       </c>
       <c r="B317">
-        <v>6.8180000000000004E-2</v>
+        <f>Wide!E17</f>
+        <v>0.15789</v>
       </c>
       <c r="C317" t="s">
         <v>106</v>
@@ -7416,7 +7764,8 @@
         <v>31</v>
       </c>
       <c r="B318">
-        <v>0.22222</v>
+        <f>Wide!E18</f>
+        <v>0.5</v>
       </c>
       <c r="C318" t="s">
         <v>106</v>
@@ -7427,6 +7776,7 @@
         <v>32</v>
       </c>
       <c r="B319">
+        <f>Wide!E19</f>
         <v>0</v>
       </c>
       <c r="C319" t="s">
@@ -7438,7 +7788,8 @@
         <v>30</v>
       </c>
       <c r="B320">
-        <v>0.88888999999999996</v>
+        <f>Wide!E20</f>
+        <v>1</v>
       </c>
       <c r="C320" t="s">
         <v>106</v>
@@ -7449,6 +7800,7 @@
         <v>100</v>
       </c>
       <c r="B321">
+        <f>Wide!E21</f>
         <v>1</v>
       </c>
       <c r="C321" t="s">
@@ -7460,6 +7812,7 @@
         <v>67</v>
       </c>
       <c r="B322">
+        <f>Wide!E22</f>
         <v>1</v>
       </c>
       <c r="C322" t="s">
@@ -7471,6 +7824,7 @@
         <v>66</v>
       </c>
       <c r="B323">
+        <f>Wide!E23</f>
         <v>1</v>
       </c>
       <c r="C323" t="s">
@@ -7482,7 +7836,8 @@
         <v>78</v>
       </c>
       <c r="B324">
-        <v>0.76249999999999996</v>
+        <f>Wide!E24</f>
+        <v>0.89129999999999998</v>
       </c>
       <c r="C324" t="s">
         <v>106</v>
@@ -7493,7 +7848,8 @@
         <v>79</v>
       </c>
       <c r="B325">
-        <v>0.45</v>
+        <f>Wide!E25</f>
+        <v>0.30435000000000001</v>
       </c>
       <c r="C325" t="s">
         <v>106</v>
@@ -7504,7 +7860,8 @@
         <v>71</v>
       </c>
       <c r="B326">
-        <v>0.9375</v>
+        <f>Wide!E26</f>
+        <v>1</v>
       </c>
       <c r="C326" t="s">
         <v>106</v>
@@ -7515,7 +7872,8 @@
         <v>72</v>
       </c>
       <c r="B327">
-        <v>0.9375</v>
+        <f>Wide!E27</f>
+        <v>1</v>
       </c>
       <c r="C327" t="s">
         <v>106</v>
@@ -7526,6 +7884,7 @@
         <v>81</v>
       </c>
       <c r="B328">
+        <f>Wide!E28</f>
         <v>1</v>
       </c>
       <c r="C328" t="s">
@@ -7537,7 +7896,8 @@
         <v>74</v>
       </c>
       <c r="B329">
-        <v>0.13750000000000001</v>
+        <f>Wide!E29</f>
+        <v>0.19564999999999999</v>
       </c>
       <c r="C329" t="s">
         <v>106</v>
@@ -7548,7 +7908,8 @@
         <v>73</v>
       </c>
       <c r="B330">
-        <v>0.5625</v>
+        <f>Wide!E30</f>
+        <v>0.58696000000000004</v>
       </c>
       <c r="C330" t="s">
         <v>106</v>
@@ -7559,7 +7920,8 @@
         <v>75</v>
       </c>
       <c r="B331">
-        <v>0.3</v>
+        <f>Wide!E31</f>
+        <v>0.36957000000000001</v>
       </c>
       <c r="C331" t="s">
         <v>106</v>
@@ -7570,7 +7932,8 @@
         <v>82</v>
       </c>
       <c r="B332">
-        <v>0.83333000000000002</v>
+        <f>Wide!E32</f>
+        <v>0.93332999999999999</v>
       </c>
       <c r="C332" t="s">
         <v>106</v>
@@ -7581,7 +7944,8 @@
         <v>80</v>
       </c>
       <c r="B333">
-        <v>6.25E-2</v>
+        <f>Wide!E33</f>
+        <v>6.522E-2</v>
       </c>
       <c r="C333" t="s">
         <v>106</v>
@@ -7592,7 +7956,8 @@
         <v>76</v>
       </c>
       <c r="B334">
-        <v>0.9375</v>
+        <f>Wide!E34</f>
+        <v>0.97826000000000002</v>
       </c>
       <c r="C334" t="s">
         <v>106</v>
@@ -7603,7 +7968,8 @@
         <v>77</v>
       </c>
       <c r="B335">
-        <v>0.875</v>
+        <f>Wide!E35</f>
+        <v>0.80435000000000001</v>
       </c>
       <c r="C335" t="s">
         <v>106</v>
@@ -7614,7 +7980,8 @@
         <v>15</v>
       </c>
       <c r="B336">
-        <v>0.9</v>
+        <f>Wide!E36</f>
+        <v>1</v>
       </c>
       <c r="C336" t="s">
         <v>106</v>
@@ -7625,6 +7992,7 @@
         <v>17</v>
       </c>
       <c r="B337">
+        <f>Wide!E37</f>
         <v>1</v>
       </c>
       <c r="C337" t="s">
@@ -7636,6 +8004,7 @@
         <v>16</v>
       </c>
       <c r="B338">
+        <f>Wide!E38</f>
         <v>1</v>
       </c>
       <c r="C338" t="s">
@@ -7647,7 +8016,8 @@
         <v>19</v>
       </c>
       <c r="B339">
-        <v>0.1</v>
+        <f>Wide!E39</f>
+        <v>0.17646999999999999</v>
       </c>
       <c r="C339" t="s">
         <v>106</v>
@@ -7658,7 +8028,8 @@
         <v>18</v>
       </c>
       <c r="B340">
-        <v>0.7</v>
+        <f>Wide!E40</f>
+        <v>0.82352999999999998</v>
       </c>
       <c r="C340" t="s">
         <v>106</v>
@@ -7669,7 +8040,8 @@
         <v>20</v>
       </c>
       <c r="B341">
-        <v>0.36364000000000002</v>
+        <f>Wide!E41</f>
+        <v>0.5</v>
       </c>
       <c r="C341" t="s">
         <v>106</v>
@@ -7680,7 +8052,8 @@
         <v>90</v>
       </c>
       <c r="B342">
-        <v>0.99497000000000002</v>
+        <f>Wide!E42</f>
+        <v>1</v>
       </c>
       <c r="C342" t="s">
         <v>106</v>
@@ -7691,6 +8064,7 @@
         <v>89</v>
       </c>
       <c r="B343">
+        <f>Wide!E43</f>
         <v>1</v>
       </c>
       <c r="C343" t="s">
@@ -7702,7 +8076,8 @@
         <v>93</v>
       </c>
       <c r="B344">
-        <v>0.88083</v>
+        <f>Wide!E44</f>
+        <v>0.91429000000000005</v>
       </c>
       <c r="C344" t="s">
         <v>106</v>
@@ -7713,6 +8088,7 @@
         <v>94</v>
       </c>
       <c r="B345">
+        <f>Wide!E45</f>
         <v>0.8</v>
       </c>
       <c r="C345" t="s">
@@ -7724,6 +8100,7 @@
         <v>91</v>
       </c>
       <c r="B346">
+        <f>Wide!E46</f>
         <v>1</v>
       </c>
       <c r="C346" t="s">
@@ -7735,7 +8112,8 @@
         <v>96</v>
       </c>
       <c r="B347">
-        <v>0.25</v>
+        <f>Wide!E47</f>
+        <v>0.33333000000000002</v>
       </c>
       <c r="C347" t="s">
         <v>106</v>
@@ -7746,6 +8124,7 @@
         <v>95</v>
       </c>
       <c r="B348">
+        <f>Wide!E48</f>
         <v>1</v>
       </c>
       <c r="C348" t="s">
@@ -7757,7 +8136,8 @@
         <v>92</v>
       </c>
       <c r="B349">
-        <v>0.98492000000000002</v>
+        <f>Wide!E49</f>
+        <v>0.98165000000000002</v>
       </c>
       <c r="C349" t="s">
         <v>106</v>
@@ -7768,6 +8148,7 @@
         <v>99</v>
       </c>
       <c r="B350">
+        <f>Wide!E50</f>
         <v>1</v>
       </c>
       <c r="C350" t="s">
@@ -7779,7 +8160,8 @@
         <v>64</v>
       </c>
       <c r="B351">
-        <v>0.88888999999999996</v>
+        <f>Wide!E51</f>
+        <v>1</v>
       </c>
       <c r="C351" t="s">
         <v>106</v>
@@ -7790,7 +8172,8 @@
         <v>65</v>
       </c>
       <c r="B352">
-        <v>0.44444</v>
+        <f>Wide!E52</f>
+        <v>0.66666999999999998</v>
       </c>
       <c r="C352" t="s">
         <v>106</v>
@@ -7801,7 +8184,8 @@
         <v>63</v>
       </c>
       <c r="B353">
-        <v>0.88888999999999996</v>
+        <f>Wide!E53</f>
+        <v>1</v>
       </c>
       <c r="C353" t="s">
         <v>106</v>
@@ -7812,7 +8196,8 @@
         <v>11</v>
       </c>
       <c r="B354">
-        <v>4.5449999999999997E-2</v>
+        <f>Wide!E54</f>
+        <v>6.6669999999999993E-2</v>
       </c>
       <c r="C354" t="s">
         <v>106</v>
@@ -7823,7 +8208,8 @@
         <v>13</v>
       </c>
       <c r="B355">
-        <v>0.88461999999999996</v>
+        <f>Wide!E55</f>
+        <v>0.90908999999999995</v>
       </c>
       <c r="C355" t="s">
         <v>106</v>
@@ -7834,6 +8220,7 @@
         <v>9</v>
       </c>
       <c r="B356">
+        <f>Wide!E56</f>
         <v>1</v>
       </c>
       <c r="C356" t="s">
@@ -7845,7 +8232,8 @@
         <v>10</v>
       </c>
       <c r="B357">
-        <v>0.79544999999999999</v>
+        <f>Wide!E57</f>
+        <v>0.93332999999999999</v>
       </c>
       <c r="C357" t="s">
         <v>106</v>
@@ -7856,6 +8244,7 @@
         <v>14</v>
       </c>
       <c r="B358">
+        <f>Wide!E58</f>
         <v>1</v>
       </c>
       <c r="C358" t="s">
@@ -7867,7 +8256,8 @@
         <v>12</v>
       </c>
       <c r="B359">
-        <v>7.6920000000000002E-2</v>
+        <f>Wide!E59</f>
+        <v>9.0910000000000005E-2</v>
       </c>
       <c r="C359" t="s">
         <v>106</v>
@@ -7878,7 +8268,8 @@
         <v>8</v>
       </c>
       <c r="B360">
-        <v>0.77273000000000003</v>
+        <f>Wide!E60</f>
+        <v>0.9</v>
       </c>
       <c r="C360" t="s">
         <v>106</v>
@@ -7889,7 +8280,8 @@
         <v>60</v>
       </c>
       <c r="B361">
-        <v>0.47059000000000001</v>
+        <f>Wide!E61</f>
+        <v>1</v>
       </c>
       <c r="C361" t="s">
         <v>106</v>
@@ -7900,7 +8292,8 @@
         <v>62</v>
       </c>
       <c r="B362">
-        <v>0.17646999999999999</v>
+        <f>Wide!E62</f>
+        <v>0.42857000000000001</v>
       </c>
       <c r="C362" t="s">
         <v>106</v>
@@ -7911,7 +8304,8 @@
         <v>61</v>
       </c>
       <c r="B363">
-        <v>0.11765</v>
+        <f>Wide!E63</f>
+        <v>0.28571000000000002</v>
       </c>
       <c r="C363" t="s">
         <v>106</v>
@@ -7922,7 +8316,8 @@
         <v>59</v>
       </c>
       <c r="B364">
-        <v>0.41176000000000001</v>
+        <f>Wide!E64</f>
+        <v>1</v>
       </c>
       <c r="C364" t="s">
         <v>106</v>
@@ -7933,7 +8328,8 @@
         <v>2</v>
       </c>
       <c r="B365">
-        <v>0.75</v>
+        <f>Wide!E65</f>
+        <v>1</v>
       </c>
       <c r="C365" t="s">
         <v>106</v>
@@ -7944,7 +8340,8 @@
         <v>1</v>
       </c>
       <c r="B366">
-        <v>0.75</v>
+        <f>Wide!E66</f>
+        <v>1</v>
       </c>
       <c r="C366" t="s">
         <v>106</v>
@@ -7955,7 +8352,8 @@
         <v>3</v>
       </c>
       <c r="B367">
-        <v>0.75</v>
+        <f>Wide!E67</f>
+        <v>1</v>
       </c>
       <c r="C367" t="s">
         <v>106</v>
@@ -7966,7 +8364,8 @@
         <v>4</v>
       </c>
       <c r="B368">
-        <v>0.25</v>
+        <f>Wide!E68</f>
+        <v>0.33333000000000002</v>
       </c>
       <c r="C368" t="s">
         <v>106</v>
@@ -7977,6 +8376,7 @@
         <v>21</v>
       </c>
       <c r="B369">
+        <f>Wide!E69</f>
         <v>1</v>
       </c>
       <c r="C369" t="s">
@@ -7988,6 +8388,7 @@
         <v>23</v>
       </c>
       <c r="B370">
+        <f>Wide!E70</f>
         <v>1</v>
       </c>
       <c r="C370" t="s">
@@ -7999,6 +8400,7 @@
         <v>24</v>
       </c>
       <c r="B371">
+        <f>Wide!E71</f>
         <v>1</v>
       </c>
       <c r="C371" t="s">
@@ -8010,6 +8412,7 @@
         <v>22</v>
       </c>
       <c r="B372">
+        <f>Wide!E72</f>
         <v>1</v>
       </c>
       <c r="C372" t="s">
@@ -8021,7 +8424,8 @@
         <v>40</v>
       </c>
       <c r="B373">
-        <v>0.86667000000000005</v>
+        <f>Wide!E73</f>
+        <v>1</v>
       </c>
       <c r="C373" t="s">
         <v>106</v>
@@ -8032,7 +8436,8 @@
         <v>41</v>
       </c>
       <c r="B374">
-        <v>0.86667000000000005</v>
+        <f>Wide!E74</f>
+        <v>1</v>
       </c>
       <c r="C374" t="s">
         <v>106</v>
@@ -8043,6 +8448,7 @@
         <v>45</v>
       </c>
       <c r="B375">
+        <f>Wide!E75</f>
         <v>1</v>
       </c>
       <c r="C375" t="s">
@@ -8054,6 +8460,7 @@
         <v>42</v>
       </c>
       <c r="B376">
+        <f>Wide!E76</f>
         <v>1</v>
       </c>
       <c r="C376" t="s">
@@ -8065,7 +8472,8 @@
         <v>43</v>
       </c>
       <c r="B377">
-        <v>0.84443999999999997</v>
+        <f>Wide!E77</f>
+        <v>0.57142999999999999</v>
       </c>
       <c r="C377" t="s">
         <v>106</v>
@@ -8076,7 +8484,8 @@
         <v>46</v>
       </c>
       <c r="B378">
-        <v>0.14285999999999999</v>
+        <f>Wide!E78</f>
+        <v>0.33333000000000002</v>
       </c>
       <c r="C378" t="s">
         <v>106</v>
@@ -8087,7 +8496,8 @@
         <v>48</v>
       </c>
       <c r="B379">
-        <v>0.58333000000000002</v>
+        <f>Wide!E79</f>
+        <v>0.625</v>
       </c>
       <c r="C379" t="s">
         <v>106</v>
@@ -8098,6 +8508,7 @@
         <v>49</v>
       </c>
       <c r="B380">
+        <f>Wide!E80</f>
         <v>0</v>
       </c>
       <c r="C380" t="s">
@@ -8109,6 +8520,7 @@
         <v>47</v>
       </c>
       <c r="B381">
+        <f>Wide!E81</f>
         <v>1</v>
       </c>
       <c r="C381" t="s">
@@ -8120,7 +8532,8 @@
         <v>44</v>
       </c>
       <c r="B382">
-        <v>0.18889</v>
+        <f>Wide!E82</f>
+        <v>0.28571000000000002</v>
       </c>
       <c r="C382" t="s">
         <v>106</v>
@@ -8131,7 +8544,8 @@
         <v>51</v>
       </c>
       <c r="B383">
-        <v>0.98507</v>
+        <f>Wide!E83</f>
+        <v>1</v>
       </c>
       <c r="C383" t="s">
         <v>106</v>
@@ -8142,6 +8556,7 @@
         <v>52</v>
       </c>
       <c r="B384">
+        <f>Wide!E84</f>
         <v>1</v>
       </c>
       <c r="C384" t="s">
@@ -8153,7 +8568,8 @@
         <v>55</v>
       </c>
       <c r="B385">
-        <v>0.49253999999999998</v>
+        <f>Wide!E85</f>
+        <v>0.52500000000000002</v>
       </c>
       <c r="C385" t="s">
         <v>106</v>
@@ -8164,6 +8580,7 @@
         <v>58</v>
       </c>
       <c r="B386">
+        <f>Wide!E86</f>
         <v>1</v>
       </c>
       <c r="C386" t="s">
@@ -8175,6 +8592,7 @@
         <v>50</v>
       </c>
       <c r="B387">
+        <f>Wide!E87</f>
         <v>1</v>
       </c>
       <c r="C387" t="s">
@@ -8186,7 +8604,8 @@
         <v>56</v>
       </c>
       <c r="B388">
-        <v>0.71641999999999995</v>
+        <f>Wide!E88</f>
+        <v>0.8</v>
       </c>
       <c r="C388" t="s">
         <v>106</v>
@@ -8197,7 +8616,8 @@
         <v>54</v>
       </c>
       <c r="B389">
-        <v>0.55223999999999995</v>
+        <f>Wide!E89</f>
+        <v>0.67500000000000004</v>
       </c>
       <c r="C389" t="s">
         <v>106</v>
@@ -8208,6 +8628,7 @@
         <v>53</v>
       </c>
       <c r="B390">
+        <f>Wide!E90</f>
         <v>1</v>
       </c>
       <c r="C390" t="s">
@@ -8219,7 +8640,8 @@
         <v>57</v>
       </c>
       <c r="B391">
-        <v>0.10448</v>
+        <f>Wide!E91</f>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C391" t="s">
         <v>106</v>
@@ -8230,6 +8652,7 @@
         <v>33</v>
       </c>
       <c r="B392">
+        <f>Wide!E92</f>
         <v>1</v>
       </c>
       <c r="C392" t="s">
@@ -8241,7 +8664,8 @@
         <v>34</v>
       </c>
       <c r="B393">
-        <v>0.875</v>
+        <f>Wide!E93</f>
+        <v>1</v>
       </c>
       <c r="C393" t="s">
         <v>106</v>
@@ -8252,6 +8676,7 @@
         <v>70</v>
       </c>
       <c r="B394">
+        <f>Wide!E94</f>
         <v>1</v>
       </c>
       <c r="C394" t="s">
@@ -8263,6 +8688,7 @@
         <v>69</v>
       </c>
       <c r="B395">
+        <f>Wide!E95</f>
         <v>1</v>
       </c>
       <c r="C395" t="s">
@@ -8274,6 +8700,7 @@
         <v>68</v>
       </c>
       <c r="B396">
+        <f>Wide!E96</f>
         <v>1</v>
       </c>
       <c r="C396" t="s">
@@ -8285,6 +8712,7 @@
         <v>37</v>
       </c>
       <c r="B397">
+        <f>Wide!E97</f>
         <v>1</v>
       </c>
       <c r="C397" t="s">
@@ -8296,6 +8724,7 @@
         <v>38</v>
       </c>
       <c r="B398">
+        <f>Wide!E98</f>
         <v>1</v>
       </c>
       <c r="C398" t="s">
@@ -8307,6 +8736,7 @@
         <v>98</v>
       </c>
       <c r="B399">
+        <f>Wide!E99</f>
         <v>1</v>
       </c>
       <c r="C399" t="s">
@@ -8318,6 +8748,7 @@
         <v>97</v>
       </c>
       <c r="B400">
+        <f>Wide!E100</f>
         <v>1</v>
       </c>
       <c r="C400" t="s">
@@ -8329,6 +8760,7 @@
         <v>39</v>
       </c>
       <c r="B401">
+        <f>Wide!E101</f>
         <v>0.5</v>
       </c>
       <c r="C401" t="s">

--- a/data/git/file/git.o.xlsx
+++ b/data/git/file/git.o.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jryans/Research/Papers/oopsla-2023/data/git/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4EE94F-1886-AC42-99FA-F241CAEFF560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3B8E25-D8A3-F845-B160-26E10E7F6B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16440" yWindow="1920" windowWidth="47060" windowHeight="24880" activeTab="2" xr2:uid="{1069CAA2-7C27-E54E-B88A-C9343E41429C}"/>
+    <workbookView xWindow="16440" yWindow="1920" windowWidth="47060" windowHeight="24880" activeTab="1" xr2:uid="{1069CAA2-7C27-E54E-B88A-C9343E41429C}"/>
   </bookViews>
   <sheets>
     <sheet name="Wide" sheetId="1" r:id="rId1"/>
@@ -658,9 +658,6 @@
     <t>O1-14 Delta</t>
   </si>
   <si>
-    <t xml:space="preserve">CL / SL (O0-13, m2r)    </t>
-  </si>
-  <si>
     <t>CL / SL (O1-12)</t>
   </si>
   <si>
@@ -673,9 +670,6 @@
     <t>CL / SL Delta</t>
   </si>
   <si>
-    <t>CL (O0-13, m2r)</t>
-  </si>
-  <si>
     <t>CL (O1-12)</t>
   </si>
   <si>
@@ -683,24 +677,6 @@
   </si>
   <si>
     <t>CL (O1-14)</t>
-  </si>
-  <si>
-    <t>CL / SL (O0-13)</t>
-  </si>
-  <si>
-    <t>CL (O0-13)</t>
-  </si>
-  <si>
-    <t>Clang 13, O0</t>
-  </si>
-  <si>
-    <t>O0-13 Delta</t>
-  </si>
-  <si>
-    <t>O0-13, m2r Delta</t>
-  </si>
-  <si>
-    <t>Clang 13, O0 + mem2reg</t>
   </si>
   <si>
     <t>Arithmetic Mean (Normalised)</t>
@@ -717,14 +693,45 @@
   <si>
     <t>Clang 14, O2</t>
   </si>
+  <si>
+    <t>CL / SL (O0-14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL / SL (O0-14, m2r)    </t>
+  </si>
+  <si>
+    <t>O0-14 Delta</t>
+  </si>
+  <si>
+    <t>O0-14, m2r Delta</t>
+  </si>
+  <si>
+    <t>CL (O0-14)</t>
+  </si>
+  <si>
+    <t>CL (O0-14, m2r)</t>
+  </si>
+  <si>
+    <t>Clang 14, O0</t>
+  </si>
+  <si>
+    <t>Clang 14, O0 + mem2reg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -814,10 +821,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -853,59 +861,59 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o_6" connectionId="17" xr16:uid="{BF097535-9BC4-8A44-8028-889020E90CD1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o_4" connectionId="15" xr16:uid="{12472C14-9457-0C4B-85A7-6B4E9A0A4A3A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o_3" connectionId="14" xr16:uid="{ED71FF77-6ABC-D749-8E21-C2BBC0C49B38}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o_2" connectionId="13" xr16:uid="{577EB844-CFFF-874E-B636-A682F7CA9C09}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o_10" connectionId="12" xr16:uid="{6F5AE438-0047-EF40-9065-31B57EBCFEA0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o_9" connectionId="20" xr16:uid="{DF99720B-8FB8-1945-B82B-62174EC5794B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o_9" connectionId="20" xr16:uid="{DF99720B-8FB8-1945-B82B-62174EC5794B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O013m2r" connectionId="2" xr16:uid="{9CCAF8A0-2B7D-0548-BCF8-D231422B6B5F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O113" connectionId="7" xr16:uid="{7EC8FDAA-8641-7F44-A40C-DFADA06143DC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O114" connectionId="9" xr16:uid="{6DA84D36-F075-D643-87AE-9205D8C2E13B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O013m2r" connectionId="3" xr16:uid="{6BD7D553-8716-684F-A112-947029E7B50E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O112" connectionId="5" xr16:uid="{5C22DE01-5C44-7C4E-9EAF-E54F03689DF7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O113" connectionId="7" xr16:uid="{7EC8FDAA-8641-7F44-A40C-DFADA06143DC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O112" connectionId="6" xr16:uid="{72FE5272-0C81-7B49-8C92-9E8FE63CCD65}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O114" connectionId="9" xr16:uid="{6DA84D36-F075-D643-87AE-9205D8C2E13B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O013m2r" connectionId="4" xr16:uid="{F1095D83-ED7E-9549-9DFC-EB98E00E3997}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O013m2r" connectionId="3" xr16:uid="{6BD7D553-8716-684F-A112-947029E7B50E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O114" connectionId="10" xr16:uid="{D34FF5A8-62F7-554D-9E92-8F5C8D099217}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o_5" connectionId="16" xr16:uid="{5AF1A4D8-20C7-B944-973B-C6F106978454}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O113" connectionId="8" xr16:uid="{061FB766-530C-7F46-AA03-8A3221BEEC32}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O112" connectionId="6" xr16:uid="{72FE5272-0C81-7B49-8C92-9E8FE63CCD65}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O013m2r" connectionId="4" xr16:uid="{F1095D83-ED7E-9549-9DFC-EB98E00E3997}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o_2" connectionId="13" xr16:uid="{577EB844-CFFF-874E-B636-A682F7CA9C09}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O114" connectionId="10" xr16:uid="{D34FF5A8-62F7-554D-9E92-8F5C8D099217}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o_4" connectionId="15" xr16:uid="{12472C14-9457-0C4B-85A7-6B4E9A0A4A3A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o_7" connectionId="18" xr16:uid="{D6E8256A-0710-A34A-80B4-71635A8A7FF9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -913,23 +921,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o_3" connectionId="14" xr16:uid="{ED71FF77-6ABC-D749-8E21-C2BBC0C49B38}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o_1" connectionId="11" xr16:uid="{3FDFE62B-64A1-F14C-AAB6-88B8E3E9B697}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o_10" connectionId="12" xr16:uid="{6F5AE438-0047-EF40-9065-31B57EBCFEA0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o_8" connectionId="19" xr16:uid="{6528BD19-FD94-5B40-8D88-624F75163B95}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o.O013m2r" connectionId="2" xr16:uid="{9CCAF8A0-2B7D-0548-BCF8-D231422B6B5F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o_5" connectionId="16" xr16:uid="{5AF1A4D8-20C7-B944-973B-C6F106978454}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o_7" connectionId="18" xr16:uid="{D6E8256A-0710-A34A-80B4-71635A8A7FF9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="git.o_6" connectionId="17" xr16:uid="{BF097535-9BC4-8A44-8028-889020E90CD1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1232,7 +1240,7 @@
   <dimension ref="A1:T101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1260,31 +1268,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>106</v>
@@ -1296,19 +1304,19 @@
         <v>108</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -7426,8 +7434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E642B73-D860-1940-91EE-067F16E263DB}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -7443,15 +7451,15 @@
         <v>102</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>120</v>
+      <c r="A2" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="B2" s="7">
         <f>1+AVERAGE(Wide!J2:J101)</f>
@@ -7467,8 +7475,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>123</v>
+      <c r="A3" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="B3" s="7">
         <f>1+AVERAGE(Wide!K2:K101)</f>
@@ -7535,7 +7543,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7544,8 +7552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B95AD34-2DCB-AC43-B218-83D6A66E9916}">
   <dimension ref="A1:C601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A574" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E596" sqref="E596"/>
+    <sheetView topLeftCell="A574" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J606" sqref="J606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -7572,7 +7580,7 @@
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>29</v>
@@ -7584,7 +7592,7 @@
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>83</v>
@@ -7596,7 +7604,7 @@
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>84</v>
@@ -7608,7 +7616,7 @@
     </row>
     <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>85</v>
@@ -7620,7 +7628,7 @@
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>86</v>
@@ -7632,7 +7640,7 @@
     </row>
     <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>87</v>
@@ -7644,7 +7652,7 @@
     </row>
     <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>88</v>
@@ -7656,7 +7664,7 @@
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>25</v>
@@ -7668,7 +7676,7 @@
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>27</v>
@@ -7680,7 +7688,7 @@
     </row>
     <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>28</v>
@@ -7692,7 +7700,7 @@
     </row>
     <row r="12" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>26</v>
@@ -7704,7 +7712,7 @@
     </row>
     <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>36</v>
@@ -7716,7 +7724,7 @@
     </row>
     <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>35</v>
@@ -7728,7 +7736,7 @@
     </row>
     <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>5</v>
@@ -7740,7 +7748,7 @@
     </row>
     <row r="16" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>6</v>
@@ -7752,7 +7760,7 @@
     </row>
     <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>7</v>
@@ -7764,7 +7772,7 @@
     </row>
     <row r="18" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>31</v>
@@ -7776,7 +7784,7 @@
     </row>
     <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>32</v>
@@ -7788,7 +7796,7 @@
     </row>
     <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>30</v>
@@ -7800,7 +7808,7 @@
     </row>
     <row r="21" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>100</v>
@@ -7812,7 +7820,7 @@
     </row>
     <row r="22" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>67</v>
@@ -7824,7 +7832,7 @@
     </row>
     <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>66</v>
@@ -7836,7 +7844,7 @@
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>78</v>
@@ -7848,7 +7856,7 @@
     </row>
     <row r="25" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>79</v>
@@ -7860,7 +7868,7 @@
     </row>
     <row r="26" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>71</v>
@@ -7872,7 +7880,7 @@
     </row>
     <row r="27" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>72</v>
@@ -7884,7 +7892,7 @@
     </row>
     <row r="28" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>81</v>
@@ -7896,7 +7904,7 @@
     </row>
     <row r="29" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>74</v>
@@ -7908,7 +7916,7 @@
     </row>
     <row r="30" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>73</v>
@@ -7920,7 +7928,7 @@
     </row>
     <row r="31" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>75</v>
@@ -7932,7 +7940,7 @@
     </row>
     <row r="32" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>82</v>
@@ -7944,7 +7952,7 @@
     </row>
     <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>80</v>
@@ -7956,7 +7964,7 @@
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>76</v>
@@ -7968,7 +7976,7 @@
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>77</v>
@@ -7980,7 +7988,7 @@
     </row>
     <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>15</v>
@@ -7992,7 +8000,7 @@
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>17</v>
@@ -8004,7 +8012,7 @@
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>16</v>
@@ -8016,7 +8024,7 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>19</v>
@@ -8028,7 +8036,7 @@
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>18</v>
@@ -8040,7 +8048,7 @@
     </row>
     <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>20</v>
@@ -8052,7 +8060,7 @@
     </row>
     <row r="42" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>90</v>
@@ -8064,7 +8072,7 @@
     </row>
     <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>89</v>
@@ -8076,7 +8084,7 @@
     </row>
     <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>93</v>
@@ -8088,7 +8096,7 @@
     </row>
     <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>94</v>
@@ -8100,7 +8108,7 @@
     </row>
     <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>91</v>
@@ -8112,7 +8120,7 @@
     </row>
     <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>96</v>
@@ -8124,7 +8132,7 @@
     </row>
     <row r="48" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>95</v>
@@ -8136,7 +8144,7 @@
     </row>
     <row r="49" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>92</v>
@@ -8148,7 +8156,7 @@
     </row>
     <row r="50" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>99</v>
@@ -8160,7 +8168,7 @@
     </row>
     <row r="51" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>64</v>
@@ -8172,7 +8180,7 @@
     </row>
     <row r="52" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>65</v>
@@ -8184,7 +8192,7 @@
     </row>
     <row r="53" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>63</v>
@@ -8196,7 +8204,7 @@
     </row>
     <row r="54" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>11</v>
@@ -8208,7 +8216,7 @@
     </row>
     <row r="55" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>13</v>
@@ -8220,7 +8228,7 @@
     </row>
     <row r="56" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>9</v>
@@ -8232,7 +8240,7 @@
     </row>
     <row r="57" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>10</v>
@@ -8244,7 +8252,7 @@
     </row>
     <row r="58" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>14</v>
@@ -8256,7 +8264,7 @@
     </row>
     <row r="59" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>12</v>
@@ -8268,7 +8276,7 @@
     </row>
     <row r="60" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>8</v>
@@ -8280,7 +8288,7 @@
     </row>
     <row r="61" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>60</v>
@@ -8292,7 +8300,7 @@
     </row>
     <row r="62" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>62</v>
@@ -8304,7 +8312,7 @@
     </row>
     <row r="63" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>61</v>
@@ -8316,7 +8324,7 @@
     </row>
     <row r="64" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>59</v>
@@ -8328,7 +8336,7 @@
     </row>
     <row r="65" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>2</v>
@@ -8340,7 +8348,7 @@
     </row>
     <row r="66" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>1</v>
@@ -8352,7 +8360,7 @@
     </row>
     <row r="67" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>3</v>
@@ -8364,7 +8372,7 @@
     </row>
     <row r="68" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>4</v>
@@ -8376,7 +8384,7 @@
     </row>
     <row r="69" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>21</v>
@@ -8388,7 +8396,7 @@
     </row>
     <row r="70" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>23</v>
@@ -8400,7 +8408,7 @@
     </row>
     <row r="71" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>24</v>
@@ -8412,7 +8420,7 @@
     </row>
     <row r="72" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>22</v>
@@ -8424,7 +8432,7 @@
     </row>
     <row r="73" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>40</v>
@@ -8436,7 +8444,7 @@
     </row>
     <row r="74" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>41</v>
@@ -8448,7 +8456,7 @@
     </row>
     <row r="75" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>45</v>
@@ -8460,7 +8468,7 @@
     </row>
     <row r="76" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>42</v>
@@ -8472,7 +8480,7 @@
     </row>
     <row r="77" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>43</v>
@@ -8484,7 +8492,7 @@
     </row>
     <row r="78" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>46</v>
@@ -8496,7 +8504,7 @@
     </row>
     <row r="79" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>48</v>
@@ -8508,7 +8516,7 @@
     </row>
     <row r="80" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>49</v>
@@ -8520,7 +8528,7 @@
     </row>
     <row r="81" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>47</v>
@@ -8532,7 +8540,7 @@
     </row>
     <row r="82" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>44</v>
@@ -8544,7 +8552,7 @@
     </row>
     <row r="83" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>51</v>
@@ -8556,7 +8564,7 @@
     </row>
     <row r="84" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>52</v>
@@ -8568,7 +8576,7 @@
     </row>
     <row r="85" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>55</v>
@@ -8580,7 +8588,7 @@
     </row>
     <row r="86" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>58</v>
@@ -8592,7 +8600,7 @@
     </row>
     <row r="87" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>50</v>
@@ -8604,7 +8612,7 @@
     </row>
     <row r="88" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>56</v>
@@ -8616,7 +8624,7 @@
     </row>
     <row r="89" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>54</v>
@@ -8628,7 +8636,7 @@
     </row>
     <row r="90" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>53</v>
@@ -8640,7 +8648,7 @@
     </row>
     <row r="91" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>57</v>
@@ -8652,7 +8660,7 @@
     </row>
     <row r="92" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>33</v>
@@ -8664,7 +8672,7 @@
     </row>
     <row r="93" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>34</v>
@@ -8676,7 +8684,7 @@
     </row>
     <row r="94" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>70</v>
@@ -8688,7 +8696,7 @@
     </row>
     <row r="95" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>69</v>
@@ -8700,7 +8708,7 @@
     </row>
     <row r="96" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>68</v>
@@ -8712,7 +8720,7 @@
     </row>
     <row r="97" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>37</v>
@@ -8724,7 +8732,7 @@
     </row>
     <row r="98" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>38</v>
@@ -8736,7 +8744,7 @@
     </row>
     <row r="99" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>98</v>
@@ -8748,7 +8756,7 @@
     </row>
     <row r="100" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>97</v>
@@ -8760,7 +8768,7 @@
     </row>
     <row r="101" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>39</v>
@@ -8772,7 +8780,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>29</v>
@@ -8784,7 +8792,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>83</v>
@@ -8796,7 +8804,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>84</v>
@@ -8808,7 +8816,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>85</v>
@@ -8820,7 +8828,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>86</v>
@@ -8832,7 +8840,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>87</v>
@@ -8844,7 +8852,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>88</v>
@@ -8856,7 +8864,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>25</v>
@@ -8868,7 +8876,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>27</v>
@@ -8880,7 +8888,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>28</v>
@@ -8892,7 +8900,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>26</v>
@@ -8904,7 +8912,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>36</v>
@@ -8916,7 +8924,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>35</v>
@@ -8928,7 +8936,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>5</v>
@@ -8940,7 +8948,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>6</v>
@@ -8952,7 +8960,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>7</v>
@@ -8964,7 +8972,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>31</v>
@@ -8976,7 +8984,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>32</v>
@@ -8988,7 +8996,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>30</v>
@@ -9000,7 +9008,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>100</v>
@@ -9012,7 +9020,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>67</v>
@@ -9024,7 +9032,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>66</v>
@@ -9036,7 +9044,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>78</v>
@@ -9048,7 +9056,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>79</v>
@@ -9060,7 +9068,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>71</v>
@@ -9072,7 +9080,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>72</v>
@@ -9084,7 +9092,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>81</v>
@@ -9096,7 +9104,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>74</v>
@@ -9108,7 +9116,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>73</v>
@@ -9120,7 +9128,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>75</v>
@@ -9132,7 +9140,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>82</v>
@@ -9144,7 +9152,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>80</v>
@@ -9156,7 +9164,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>76</v>
@@ -9168,7 +9176,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>77</v>
@@ -9180,7 +9188,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>15</v>
@@ -9192,7 +9200,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>17</v>
@@ -9204,7 +9212,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>16</v>
@@ -9216,7 +9224,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>19</v>
@@ -9228,7 +9236,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>18</v>
@@ -9240,7 +9248,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>20</v>
@@ -9252,7 +9260,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>90</v>
@@ -9264,7 +9272,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>89</v>
@@ -9276,7 +9284,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>93</v>
@@ -9288,7 +9296,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>94</v>
@@ -9300,7 +9308,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>91</v>
@@ -9312,7 +9320,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>96</v>
@@ -9324,7 +9332,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>95</v>
@@ -9336,7 +9344,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>92</v>
@@ -9348,7 +9356,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>99</v>
@@ -9360,7 +9368,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>64</v>
@@ -9372,7 +9380,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>65</v>
@@ -9384,7 +9392,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>63</v>
@@ -9396,7 +9404,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>11</v>
@@ -9408,7 +9416,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>13</v>
@@ -9420,7 +9428,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>9</v>
@@ -9432,7 +9440,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>10</v>
@@ -9444,7 +9452,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>14</v>
@@ -9456,7 +9464,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>12</v>
@@ -9468,7 +9476,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>8</v>
@@ -9480,7 +9488,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>60</v>
@@ -9492,7 +9500,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>62</v>
@@ -9504,7 +9512,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>61</v>
@@ -9516,7 +9524,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>59</v>
@@ -9528,7 +9536,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>2</v>
@@ -9540,7 +9548,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>1</v>
@@ -9552,7 +9560,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>3</v>
@@ -9564,7 +9572,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>4</v>
@@ -9576,7 +9584,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>21</v>
@@ -9588,7 +9596,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>23</v>
@@ -9600,7 +9608,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>24</v>
@@ -9612,7 +9620,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>22</v>
@@ -9624,7 +9632,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>40</v>
@@ -9636,7 +9644,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>41</v>
@@ -9648,7 +9656,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>45</v>
@@ -9660,7 +9668,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>42</v>
@@ -9672,7 +9680,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>43</v>
@@ -9684,7 +9692,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>46</v>
@@ -9696,7 +9704,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>48</v>
@@ -9708,7 +9716,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>49</v>
@@ -9720,7 +9728,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>47</v>
@@ -9732,7 +9740,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>44</v>
@@ -9744,7 +9752,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>51</v>
@@ -9756,7 +9764,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>52</v>
@@ -9768,7 +9776,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>55</v>
@@ -9780,7 +9788,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>58</v>
@@ -9792,7 +9800,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>50</v>
@@ -9804,7 +9812,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>56</v>
@@ -9816,7 +9824,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>54</v>
@@ -9828,7 +9836,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>53</v>
@@ -9840,7 +9848,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>57</v>
@@ -9852,7 +9860,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>33</v>
@@ -9864,7 +9872,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>34</v>
@@ -9876,7 +9884,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>70</v>
@@ -9888,7 +9896,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>69</v>
@@ -9900,7 +9908,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>68</v>
@@ -9912,7 +9920,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>37</v>
@@ -9924,7 +9932,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>38</v>
@@ -9936,7 +9944,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>98</v>
@@ -9948,7 +9956,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>97</v>
@@ -9960,7 +9968,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>39</v>
@@ -13572,7 +13580,7 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>29</v>
@@ -13584,7 +13592,7 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B503" s="3" t="s">
         <v>83</v>
@@ -13596,7 +13604,7 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>84</v>
@@ -13608,7 +13616,7 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B505" s="3" t="s">
         <v>85</v>
@@ -13620,7 +13628,7 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B506" s="3" t="s">
         <v>86</v>
@@ -13632,7 +13640,7 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>87</v>
@@ -13644,7 +13652,7 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>88</v>
@@ -13656,7 +13664,7 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>25</v>
@@ -13668,7 +13676,7 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>27</v>
@@ -13680,7 +13688,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>28</v>
@@ -13692,7 +13700,7 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B512" s="3" t="s">
         <v>26</v>
@@ -13704,7 +13712,7 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B513" s="3" t="s">
         <v>36</v>
@@ -13716,7 +13724,7 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>35</v>
@@ -13728,7 +13736,7 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B515" s="3" t="s">
         <v>5</v>
@@ -13740,7 +13748,7 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B516" s="3" t="s">
         <v>6</v>
@@ -13752,7 +13760,7 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>7</v>
@@ -13764,7 +13772,7 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>31</v>
@@ -13776,7 +13784,7 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B519" s="3" t="s">
         <v>32</v>
@@ -13788,7 +13796,7 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B520" s="3" t="s">
         <v>30</v>
@@ -13800,7 +13808,7 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B521" s="3" t="s">
         <v>100</v>
@@ -13812,7 +13820,7 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B522" s="3" t="s">
         <v>67</v>
@@ -13824,7 +13832,7 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>66</v>
@@ -13836,7 +13844,7 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>78</v>
@@ -13848,7 +13856,7 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>79</v>
@@ -13860,7 +13868,7 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B526" s="3" t="s">
         <v>71</v>
@@ -13872,7 +13880,7 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>72</v>
@@ -13884,7 +13892,7 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>81</v>
@@ -13896,7 +13904,7 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>74</v>
@@ -13908,7 +13916,7 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>73</v>
@@ -13920,7 +13928,7 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>75</v>
@@ -13932,7 +13940,7 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>82</v>
@@ -13944,7 +13952,7 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B533" s="3" t="s">
         <v>80</v>
@@ -13956,7 +13964,7 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B534" s="3" t="s">
         <v>76</v>
@@ -13968,7 +13976,7 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B535" s="3" t="s">
         <v>77</v>
@@ -13980,7 +13988,7 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B536" s="3" t="s">
         <v>15</v>
@@ -13992,7 +14000,7 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>17</v>
@@ -14004,7 +14012,7 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B538" s="3" t="s">
         <v>16</v>
@@ -14016,7 +14024,7 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B539" s="3" t="s">
         <v>19</v>
@@ -14028,7 +14036,7 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B540" s="3" t="s">
         <v>18</v>
@@ -14040,7 +14048,7 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B541" s="3" t="s">
         <v>20</v>
@@ -14052,7 +14060,7 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B542" s="3" t="s">
         <v>90</v>
@@ -14064,7 +14072,7 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B543" s="3" t="s">
         <v>89</v>
@@ -14076,7 +14084,7 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B544" s="3" t="s">
         <v>93</v>
@@ -14088,7 +14096,7 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B545" s="3" t="s">
         <v>94</v>
@@ -14100,7 +14108,7 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B546" s="3" t="s">
         <v>91</v>
@@ -14112,7 +14120,7 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B547" s="3" t="s">
         <v>96</v>
@@ -14124,7 +14132,7 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B548" s="3" t="s">
         <v>95</v>
@@ -14136,7 +14144,7 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B549" s="3" t="s">
         <v>92</v>
@@ -14148,7 +14156,7 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B550" s="3" t="s">
         <v>99</v>
@@ -14160,7 +14168,7 @@
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B551" s="3" t="s">
         <v>64</v>
@@ -14172,7 +14180,7 @@
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B552" s="3" t="s">
         <v>65</v>
@@ -14184,7 +14192,7 @@
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B553" s="3" t="s">
         <v>63</v>
@@ -14196,7 +14204,7 @@
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B554" s="3" t="s">
         <v>11</v>
@@ -14208,7 +14216,7 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B555" s="3" t="s">
         <v>13</v>
@@ -14220,7 +14228,7 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B556" s="3" t="s">
         <v>9</v>
@@ -14232,7 +14240,7 @@
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B557" s="3" t="s">
         <v>10</v>
@@ -14244,7 +14252,7 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B558" s="3" t="s">
         <v>14</v>
@@ -14256,7 +14264,7 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B559" s="3" t="s">
         <v>12</v>
@@ -14268,7 +14276,7 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B560" s="3" t="s">
         <v>8</v>
@@ -14280,7 +14288,7 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B561" s="3" t="s">
         <v>60</v>
@@ -14292,7 +14300,7 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B562" s="3" t="s">
         <v>62</v>
@@ -14304,7 +14312,7 @@
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B563" s="3" t="s">
         <v>61</v>
@@ -14316,7 +14324,7 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B564" s="3" t="s">
         <v>59</v>
@@ -14328,7 +14336,7 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B565" s="3" t="s">
         <v>2</v>
@@ -14340,7 +14348,7 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B566" s="3" t="s">
         <v>1</v>
@@ -14352,7 +14360,7 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B567" s="3" t="s">
         <v>3</v>
@@ -14364,7 +14372,7 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B568" s="3" t="s">
         <v>4</v>
@@ -14376,7 +14384,7 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B569" s="3" t="s">
         <v>21</v>
@@ -14388,7 +14396,7 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B570" s="3" t="s">
         <v>23</v>
@@ -14400,7 +14408,7 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B571" s="3" t="s">
         <v>24</v>
@@ -14412,7 +14420,7 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B572" s="3" t="s">
         <v>22</v>
@@ -14424,7 +14432,7 @@
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B573" s="3" t="s">
         <v>40</v>
@@ -14436,7 +14444,7 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B574" s="3" t="s">
         <v>41</v>
@@ -14448,7 +14456,7 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B575" s="3" t="s">
         <v>45</v>
@@ -14460,7 +14468,7 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B576" s="3" t="s">
         <v>42</v>
@@ -14472,7 +14480,7 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B577" s="3" t="s">
         <v>43</v>
@@ -14484,7 +14492,7 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B578" s="3" t="s">
         <v>46</v>
@@ -14496,7 +14504,7 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>48</v>
@@ -14508,7 +14516,7 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B580" s="3" t="s">
         <v>49</v>
@@ -14520,7 +14528,7 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B581" s="3" t="s">
         <v>47</v>
@@ -14532,7 +14540,7 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B582" s="3" t="s">
         <v>44</v>
@@ -14544,7 +14552,7 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B583" s="3" t="s">
         <v>51</v>
@@ -14556,7 +14564,7 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B584" s="3" t="s">
         <v>52</v>
@@ -14568,7 +14576,7 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B585" s="3" t="s">
         <v>55</v>
@@ -14580,7 +14588,7 @@
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>58</v>
@@ -14592,7 +14600,7 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B587" s="3" t="s">
         <v>50</v>
@@ -14604,7 +14612,7 @@
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B588" s="3" t="s">
         <v>56</v>
@@ -14616,7 +14624,7 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B589" s="3" t="s">
         <v>54</v>
@@ -14628,7 +14636,7 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B590" s="3" t="s">
         <v>53</v>
@@ -14640,7 +14648,7 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B591" s="3" t="s">
         <v>57</v>
@@ -14652,7 +14660,7 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B592" s="3" t="s">
         <v>33</v>
@@ -14664,7 +14672,7 @@
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B593" s="3" t="s">
         <v>34</v>
@@ -14676,7 +14684,7 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B594" s="3" t="s">
         <v>70</v>
@@ -14688,7 +14696,7 @@
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B595" s="3" t="s">
         <v>69</v>
@@ -14700,7 +14708,7 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B596" s="3" t="s">
         <v>68</v>
@@ -14712,7 +14720,7 @@
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B597" s="3" t="s">
         <v>37</v>
@@ -14724,7 +14732,7 @@
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B598" s="3" t="s">
         <v>38</v>
@@ -14736,7 +14744,7 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>98</v>
@@ -14748,7 +14756,7 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B600" s="3" t="s">
         <v>97</v>
@@ -14760,7 +14768,7 @@
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B601" s="3" t="s">
         <v>39</v>
@@ -14771,7 +14779,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14780,7 +14788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84346BFC-D007-624F-A0A1-2C793D8563B9}">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
@@ -14803,12 +14811,12 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>29</v>
@@ -14820,7 +14828,7 @@
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>83</v>
@@ -14832,7 +14840,7 @@
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>84</v>
@@ -14844,7 +14852,7 @@
     </row>
     <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>85</v>
@@ -14856,7 +14864,7 @@
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>86</v>
@@ -14868,7 +14876,7 @@
     </row>
     <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>87</v>
@@ -14880,7 +14888,7 @@
     </row>
     <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>88</v>
@@ -14892,7 +14900,7 @@
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -14904,7 +14912,7 @@
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>27</v>
@@ -14916,7 +14924,7 @@
     </row>
     <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
@@ -14928,7 +14936,7 @@
     </row>
     <row r="12" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>26</v>
@@ -14940,7 +14948,7 @@
     </row>
     <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>36</v>
@@ -14952,7 +14960,7 @@
     </row>
     <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>35</v>
@@ -14964,7 +14972,7 @@
     </row>
     <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -14976,7 +14984,7 @@
     </row>
     <row r="16" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
@@ -14988,7 +14996,7 @@
     </row>
     <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
@@ -15000,7 +15008,7 @@
     </row>
     <row r="18" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>31</v>
@@ -15012,7 +15020,7 @@
     </row>
     <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>32</v>
@@ -15024,7 +15032,7 @@
     </row>
     <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>30</v>
@@ -15036,7 +15044,7 @@
     </row>
     <row r="21" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>100</v>
@@ -15048,7 +15056,7 @@
     </row>
     <row r="22" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>67</v>
@@ -15060,7 +15068,7 @@
     </row>
     <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>66</v>
@@ -15072,7 +15080,7 @@
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>78</v>
@@ -15084,7 +15092,7 @@
     </row>
     <row r="25" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>79</v>
@@ -15096,7 +15104,7 @@
     </row>
     <row r="26" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>71</v>
@@ -15108,7 +15116,7 @@
     </row>
     <row r="27" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>72</v>
@@ -15120,7 +15128,7 @@
     </row>
     <row r="28" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>81</v>
@@ -15132,7 +15140,7 @@
     </row>
     <row r="29" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>74</v>
@@ -15144,7 +15152,7 @@
     </row>
     <row r="30" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>73</v>
@@ -15156,7 +15164,7 @@
     </row>
     <row r="31" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>75</v>
@@ -15168,7 +15176,7 @@
     </row>
     <row r="32" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>82</v>
@@ -15180,7 +15188,7 @@
     </row>
     <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>80</v>
@@ -15192,7 +15200,7 @@
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>76</v>
@@ -15204,7 +15212,7 @@
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>77</v>
@@ -15216,7 +15224,7 @@
     </row>
     <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>15</v>
@@ -15228,7 +15236,7 @@
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>17</v>
@@ -15240,7 +15248,7 @@
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>16</v>
@@ -15252,7 +15260,7 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>19</v>
@@ -15264,7 +15272,7 @@
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>18</v>
@@ -15276,7 +15284,7 @@
     </row>
     <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>20</v>
@@ -15288,7 +15296,7 @@
     </row>
     <row r="42" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>90</v>
@@ -15300,7 +15308,7 @@
     </row>
     <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>89</v>
@@ -15312,7 +15320,7 @@
     </row>
     <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>93</v>
@@ -15324,7 +15332,7 @@
     </row>
     <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>94</v>
@@ -15336,7 +15344,7 @@
     </row>
     <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>91</v>
@@ -15348,7 +15356,7 @@
     </row>
     <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>96</v>
@@ -15360,7 +15368,7 @@
     </row>
     <row r="48" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>95</v>
@@ -15372,7 +15380,7 @@
     </row>
     <row r="49" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>92</v>
@@ -15384,7 +15392,7 @@
     </row>
     <row r="50" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>99</v>
@@ -15396,7 +15404,7 @@
     </row>
     <row r="51" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>64</v>
@@ -15408,7 +15416,7 @@
     </row>
     <row r="52" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>65</v>
@@ -15420,7 +15428,7 @@
     </row>
     <row r="53" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>63</v>
@@ -15432,7 +15440,7 @@
     </row>
     <row r="54" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>11</v>
@@ -15444,7 +15452,7 @@
     </row>
     <row r="55" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>13</v>
@@ -15456,7 +15464,7 @@
     </row>
     <row r="56" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>9</v>
@@ -15468,7 +15476,7 @@
     </row>
     <row r="57" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>10</v>
@@ -15480,7 +15488,7 @@
     </row>
     <row r="58" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>14</v>
@@ -15492,7 +15500,7 @@
     </row>
     <row r="59" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>12</v>
@@ -15504,7 +15512,7 @@
     </row>
     <row r="60" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>8</v>
@@ -15516,7 +15524,7 @@
     </row>
     <row r="61" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>60</v>
@@ -15528,7 +15536,7 @@
     </row>
     <row r="62" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>62</v>
@@ -15540,7 +15548,7 @@
     </row>
     <row r="63" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>61</v>
@@ -15552,7 +15560,7 @@
     </row>
     <row r="64" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>59</v>
@@ -15564,7 +15572,7 @@
     </row>
     <row r="65" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>2</v>
@@ -15576,7 +15584,7 @@
     </row>
     <row r="66" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>1</v>
@@ -15588,7 +15596,7 @@
     </row>
     <row r="67" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>3</v>
@@ -15600,7 +15608,7 @@
     </row>
     <row r="68" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>4</v>
@@ -15612,7 +15620,7 @@
     </row>
     <row r="69" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>21</v>
@@ -15624,7 +15632,7 @@
     </row>
     <row r="70" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>23</v>
@@ -15636,7 +15644,7 @@
     </row>
     <row r="71" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>24</v>
@@ -15648,7 +15656,7 @@
     </row>
     <row r="72" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>22</v>
@@ -15660,7 +15668,7 @@
     </row>
     <row r="73" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>40</v>
@@ -15672,7 +15680,7 @@
     </row>
     <row r="74" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>41</v>
@@ -15684,7 +15692,7 @@
     </row>
     <row r="75" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>45</v>
@@ -15696,7 +15704,7 @@
     </row>
     <row r="76" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>42</v>
@@ -15708,7 +15716,7 @@
     </row>
     <row r="77" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>43</v>
@@ -15720,7 +15728,7 @@
     </row>
     <row r="78" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>46</v>
@@ -15732,7 +15740,7 @@
     </row>
     <row r="79" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>48</v>
@@ -15744,7 +15752,7 @@
     </row>
     <row r="80" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>49</v>
@@ -15756,7 +15764,7 @@
     </row>
     <row r="81" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>47</v>
@@ -15768,7 +15776,7 @@
     </row>
     <row r="82" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>44</v>
@@ -15780,7 +15788,7 @@
     </row>
     <row r="83" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>51</v>
@@ -15792,7 +15800,7 @@
     </row>
     <row r="84" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>52</v>
@@ -15804,7 +15812,7 @@
     </row>
     <row r="85" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>55</v>
@@ -15816,7 +15824,7 @@
     </row>
     <row r="86" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>58</v>
@@ -15828,7 +15836,7 @@
     </row>
     <row r="87" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>50</v>
@@ -15840,7 +15848,7 @@
     </row>
     <row r="88" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>56</v>
@@ -15852,7 +15860,7 @@
     </row>
     <row r="89" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>54</v>
@@ -15864,7 +15872,7 @@
     </row>
     <row r="90" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>53</v>
@@ -15876,7 +15884,7 @@
     </row>
     <row r="91" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>57</v>
@@ -15888,7 +15896,7 @@
     </row>
     <row r="92" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>33</v>
@@ -15900,7 +15908,7 @@
     </row>
     <row r="93" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>34</v>
@@ -15912,7 +15920,7 @@
     </row>
     <row r="94" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>70</v>
@@ -15924,7 +15932,7 @@
     </row>
     <row r="95" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>69</v>
@@ -15936,7 +15944,7 @@
     </row>
     <row r="96" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>68</v>
@@ -15948,7 +15956,7 @@
     </row>
     <row r="97" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>37</v>
@@ -15960,7 +15968,7 @@
     </row>
     <row r="98" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>38</v>
@@ -15972,7 +15980,7 @@
     </row>
     <row r="99" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>98</v>
@@ -15984,7 +15992,7 @@
     </row>
     <row r="100" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>97</v>
@@ -15996,7 +16004,7 @@
     </row>
     <row r="101" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>39</v>
@@ -16008,7 +16016,7 @@
     </row>
     <row r="102" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>29</v>
@@ -16020,7 +16028,7 @@
     </row>
     <row r="103" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>83</v>
@@ -16032,7 +16040,7 @@
     </row>
     <row r="104" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>84</v>
@@ -16044,7 +16052,7 @@
     </row>
     <row r="105" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>85</v>
@@ -16056,7 +16064,7 @@
     </row>
     <row r="106" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>86</v>
@@ -16068,7 +16076,7 @@
     </row>
     <row r="107" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>87</v>
@@ -16080,7 +16088,7 @@
     </row>
     <row r="108" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>88</v>
@@ -16092,7 +16100,7 @@
     </row>
     <row r="109" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>25</v>
@@ -16104,7 +16112,7 @@
     </row>
     <row r="110" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>27</v>
@@ -16116,7 +16124,7 @@
     </row>
     <row r="111" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>28</v>
@@ -16128,7 +16136,7 @@
     </row>
     <row r="112" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>26</v>
@@ -16140,7 +16148,7 @@
     </row>
     <row r="113" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>36</v>
@@ -16152,7 +16160,7 @@
     </row>
     <row r="114" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>35</v>
@@ -16164,7 +16172,7 @@
     </row>
     <row r="115" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>5</v>
@@ -16176,7 +16184,7 @@
     </row>
     <row r="116" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>6</v>
@@ -16188,7 +16196,7 @@
     </row>
     <row r="117" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>7</v>
@@ -16200,7 +16208,7 @@
     </row>
     <row r="118" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>31</v>
@@ -16212,7 +16220,7 @@
     </row>
     <row r="119" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>32</v>
@@ -16224,7 +16232,7 @@
     </row>
     <row r="120" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>30</v>
@@ -16236,7 +16244,7 @@
     </row>
     <row r="121" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>100</v>
@@ -16248,7 +16256,7 @@
     </row>
     <row r="122" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>67</v>
@@ -16260,7 +16268,7 @@
     </row>
     <row r="123" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>66</v>
@@ -16272,7 +16280,7 @@
     </row>
     <row r="124" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>78</v>
@@ -16284,7 +16292,7 @@
     </row>
     <row r="125" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>79</v>
@@ -16296,7 +16304,7 @@
     </row>
     <row r="126" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>71</v>
@@ -16308,7 +16316,7 @@
     </row>
     <row r="127" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>72</v>
@@ -16320,7 +16328,7 @@
     </row>
     <row r="128" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>81</v>
@@ -16332,7 +16340,7 @@
     </row>
     <row r="129" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>74</v>
@@ -16344,7 +16352,7 @@
     </row>
     <row r="130" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>73</v>
@@ -16356,7 +16364,7 @@
     </row>
     <row r="131" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>75</v>
@@ -16368,7 +16376,7 @@
     </row>
     <row r="132" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>82</v>
@@ -16380,7 +16388,7 @@
     </row>
     <row r="133" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>80</v>
@@ -16392,7 +16400,7 @@
     </row>
     <row r="134" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>76</v>
@@ -16404,7 +16412,7 @@
     </row>
     <row r="135" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>77</v>
@@ -16416,7 +16424,7 @@
     </row>
     <row r="136" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>15</v>
@@ -16428,7 +16436,7 @@
     </row>
     <row r="137" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>17</v>
@@ -16440,7 +16448,7 @@
     </row>
     <row r="138" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>16</v>
@@ -16452,7 +16460,7 @@
     </row>
     <row r="139" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>19</v>
@@ -16464,7 +16472,7 @@
     </row>
     <row r="140" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>18</v>
@@ -16476,7 +16484,7 @@
     </row>
     <row r="141" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>20</v>
@@ -16488,7 +16496,7 @@
     </row>
     <row r="142" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>90</v>
@@ -16500,7 +16508,7 @@
     </row>
     <row r="143" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>89</v>
@@ -16512,7 +16520,7 @@
     </row>
     <row r="144" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>93</v>
@@ -16524,7 +16532,7 @@
     </row>
     <row r="145" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>94</v>
@@ -16536,7 +16544,7 @@
     </row>
     <row r="146" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>91</v>
@@ -16548,7 +16556,7 @@
     </row>
     <row r="147" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>96</v>
@@ -16560,7 +16568,7 @@
     </row>
     <row r="148" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>95</v>
@@ -16572,7 +16580,7 @@
     </row>
     <row r="149" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>92</v>
@@ -16584,7 +16592,7 @@
     </row>
     <row r="150" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>99</v>
@@ -16596,7 +16604,7 @@
     </row>
     <row r="151" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>64</v>
@@ -16608,7 +16616,7 @@
     </row>
     <row r="152" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>65</v>
@@ -16620,7 +16628,7 @@
     </row>
     <row r="153" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>63</v>
@@ -16632,7 +16640,7 @@
     </row>
     <row r="154" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>11</v>
@@ -16644,7 +16652,7 @@
     </row>
     <row r="155" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>13</v>
@@ -16656,7 +16664,7 @@
     </row>
     <row r="156" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>9</v>
@@ -16668,7 +16676,7 @@
     </row>
     <row r="157" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>10</v>
@@ -16680,7 +16688,7 @@
     </row>
     <row r="158" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>14</v>
@@ -16692,7 +16700,7 @@
     </row>
     <row r="159" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>12</v>
@@ -16704,7 +16712,7 @@
     </row>
     <row r="160" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>8</v>
@@ -16716,7 +16724,7 @@
     </row>
     <row r="161" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>60</v>
@@ -16728,7 +16736,7 @@
     </row>
     <row r="162" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>62</v>
@@ -16740,7 +16748,7 @@
     </row>
     <row r="163" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>61</v>
@@ -16752,7 +16760,7 @@
     </row>
     <row r="164" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>59</v>
@@ -16764,7 +16772,7 @@
     </row>
     <row r="165" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>2</v>
@@ -16776,7 +16784,7 @@
     </row>
     <row r="166" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>1</v>
@@ -16788,7 +16796,7 @@
     </row>
     <row r="167" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>3</v>
@@ -16800,7 +16808,7 @@
     </row>
     <row r="168" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>4</v>
@@ -16812,7 +16820,7 @@
     </row>
     <row r="169" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>21</v>
@@ -16824,7 +16832,7 @@
     </row>
     <row r="170" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>23</v>
@@ -16836,7 +16844,7 @@
     </row>
     <row r="171" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>24</v>
@@ -16848,7 +16856,7 @@
     </row>
     <row r="172" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>22</v>
@@ -16860,7 +16868,7 @@
     </row>
     <row r="173" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>40</v>
@@ -16872,7 +16880,7 @@
     </row>
     <row r="174" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>41</v>
@@ -16884,7 +16892,7 @@
     </row>
     <row r="175" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>45</v>
@@ -16896,7 +16904,7 @@
     </row>
     <row r="176" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>42</v>
@@ -16908,7 +16916,7 @@
     </row>
     <row r="177" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>43</v>
@@ -16920,7 +16928,7 @@
     </row>
     <row r="178" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>46</v>
@@ -16932,7 +16940,7 @@
     </row>
     <row r="179" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>48</v>
@@ -16944,7 +16952,7 @@
     </row>
     <row r="180" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>49</v>
@@ -16956,7 +16964,7 @@
     </row>
     <row r="181" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>47</v>
@@ -16968,7 +16976,7 @@
     </row>
     <row r="182" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>44</v>
@@ -16980,7 +16988,7 @@
     </row>
     <row r="183" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>51</v>
@@ -16992,7 +17000,7 @@
     </row>
     <row r="184" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>52</v>
@@ -17004,7 +17012,7 @@
     </row>
     <row r="185" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>55</v>
@@ -17016,7 +17024,7 @@
     </row>
     <row r="186" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>58</v>
@@ -17028,7 +17036,7 @@
     </row>
     <row r="187" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>50</v>
@@ -17040,7 +17048,7 @@
     </row>
     <row r="188" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>56</v>
@@ -17052,7 +17060,7 @@
     </row>
     <row r="189" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>54</v>
@@ -17064,7 +17072,7 @@
     </row>
     <row r="190" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>53</v>
@@ -17076,7 +17084,7 @@
     </row>
     <row r="191" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>57</v>
@@ -17088,7 +17096,7 @@
     </row>
     <row r="192" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>33</v>
@@ -17100,7 +17108,7 @@
     </row>
     <row r="193" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>34</v>
@@ -17112,7 +17120,7 @@
     </row>
     <row r="194" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>70</v>
@@ -17124,7 +17132,7 @@
     </row>
     <row r="195" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>69</v>
@@ -17136,7 +17144,7 @@
     </row>
     <row r="196" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>68</v>
@@ -17148,7 +17156,7 @@
     </row>
     <row r="197" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>37</v>
@@ -17160,7 +17168,7 @@
     </row>
     <row r="198" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>38</v>
@@ -17172,7 +17180,7 @@
     </row>
     <row r="199" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>98</v>
@@ -17184,7 +17192,7 @@
     </row>
     <row r="200" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>97</v>
@@ -17196,7 +17204,7 @@
     </row>
     <row r="201" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>39</v>
